--- a/data/hotels_by_city/Houston/Houston_shard_676.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_676.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="470">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55456-d1383472-Reviews-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-WoodSpring-Suites-Houston-Baytown.h2559437.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,1295 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r593300196-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>55456</t>
+  </si>
+  <si>
+    <t>1383472</t>
+  </si>
+  <si>
+    <t>593300196</t>
+  </si>
+  <si>
+    <t>07/05/2018</t>
+  </si>
+  <si>
+    <t>My stay</t>
+  </si>
+  <si>
+    <t>Had a wonderful experience.It was fantastic. I really enjoyed my stay and I loved the housekeeper named Jacky,she was so nice and polite.She made me feel so welcomed.I plan on coming back soon before school starts with my kids and I hope they enjoy it as much I did.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>WoodSpring S, Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded July 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2018</t>
+  </si>
+  <si>
+    <t>Had a wonderful experience.It was fantastic. I really enjoyed my stay and I loved the housekeeper named Jacky,she was so nice and polite.She made me feel so welcomed.I plan on coming back soon before school starts with my kids and I hope they enjoy it as much I did.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r592785692-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>592785692</t>
+  </si>
+  <si>
+    <t>07/03/2018</t>
+  </si>
+  <si>
+    <t>Great visit</t>
+  </si>
+  <si>
+    <t>A great place to stay very clean and quite, loved the full size kitchen the staff was very friendly and Debra was so friendly definitely recommend you stay here they go out of their way to make three guests feel at homeMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Julia R, Guest Relations at WoodSpring Suites Houston Baytown, responded to this reviewResponded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>A great place to stay very clean and quite, loved the full size kitchen the staff was very friendly and Debra was so friendly definitely recommend you stay here they go out of their way to make three guests feel at homeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r592778154-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>592778154</t>
+  </si>
+  <si>
+    <t>perfect for plant workers and family friendly</t>
+  </si>
+  <si>
+    <t>I stayed a couple of weeks and everyone was very helpful and friendly rooms were very clean and staff was very friendly Jennifer went out of her way to make sure we were comfortable loved how safe the building is and relaxed the atmosphereMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>I stayed a couple of weeks and everyone was very helpful and friendly rooms were very clean and staff was very friendly Jennifer went out of her way to make sure we were comfortable loved how safe the building is and relaxed the atmosphereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r571551194-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>571551194</t>
+  </si>
+  <si>
+    <t>04/06/2018</t>
+  </si>
+  <si>
+    <t>What a God-send for us!</t>
+  </si>
+  <si>
+    <t>Our “In-Between” Home.....
+While the market was still good after Hurricane Harvey, we sold our Channelview, TX home of 27 years in February 2018.  We then needed a place to stay “in-between” February and our planned retirement to Tennessee in November.  We needed a furnished place just big enough for the two of us that did not require a lease.  It also needed to be affordable, safe, clean, comfy, &amp; friendly.  TripAdvisor had great reviews on this Baytown WoodSpring Suites extended stay, so we gave it a try.  Indeed, it became our “in-between” home!  
+We put everything in storage except a few weeks of clothes to rotate, some pots and pans, utensils, coffee pot and toaster, our own extra towels and washcloths, etc.  We brought in a few extra little tables for a bit more countertop space and a rolling desk chair for comfy TV watching. Basically everything else was provided.  Kitchen has  a full-sized fridge, 2 burner cooktop, microwave, huge sink, and large cabinet space.  
+Little did we know how much we would come to love it here!  Being older and light sleepers, we asked for the 4th floor with not as much traffic. Our room has a great view of beautiful sunsets in the evening. It's even become fun to watch the same vehicles come and go each day in their routines.   
+Our room is cleaned every other week, including linens changed, etc.  Extra towels, plastic cups, etc...Our “In-Between” Home.....While the market was still good after Hurricane Harvey, we sold our Channelview, TX home of 27 years in February 2018.  We then needed a place to stay “in-between” February and our planned retirement to Tennessee in November.  We needed a furnished place just big enough for the two of us that did not require a lease.  It also needed to be affordable, safe, clean, comfy, &amp; friendly.  TripAdvisor had great reviews on this Baytown WoodSpring Suites extended stay, so we gave it a try.  Indeed, it became our “in-between” home!  We put everything in storage except a few weeks of clothes to rotate, some pots and pans, utensils, coffee pot and toaster, our own extra towels and washcloths, etc.  We brought in a few extra little tables for a bit more countertop space and a rolling desk chair for comfy TV watching. Basically everything else was provided.  Kitchen has  a full-sized fridge, 2 burner cooktop, microwave, huge sink, and large cabinet space.  Little did we know how much we would come to love it here!  Being older and light sleepers, we asked for the 4th floor with not as much traffic. Our room has a great view of beautiful sunsets in the evening. It's even become fun to watch the same vehicles come and go each day in their routines.   Our room is cleaned every other week, including linens changed, etc.  Extra towels, plastic cups, etc are available upon request.The laundry room is nice, and being able to “buy” a roll of quarters from the front desk is a huge help.  If you're a Texan, you'll know the fun of having a Bucee's just down the street for take-out food.  Garth Rd has just about any kind of eating and shopping you could want.One of the best parts of staying here is that staff now feels like family :) Jackie, Angie, Cindy, Gary and others always have a smile, a kind word, and eager to help in any way.We’ve been very pleased here and would highly recommend this location!  Indeed, it will be hard to leave when the time comes.  What a God-send and answer to prayer this place has been!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>WoodSpring S, General Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded April 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2018</t>
+  </si>
+  <si>
+    <t>Our “In-Between” Home.....
+While the market was still good after Hurricane Harvey, we sold our Channelview, TX home of 27 years in February 2018.  We then needed a place to stay “in-between” February and our planned retirement to Tennessee in November.  We needed a furnished place just big enough for the two of us that did not require a lease.  It also needed to be affordable, safe, clean, comfy, &amp; friendly.  TripAdvisor had great reviews on this Baytown WoodSpring Suites extended stay, so we gave it a try.  Indeed, it became our “in-between” home!  
+We put everything in storage except a few weeks of clothes to rotate, some pots and pans, utensils, coffee pot and toaster, our own extra towels and washcloths, etc.  We brought in a few extra little tables for a bit more countertop space and a rolling desk chair for comfy TV watching. Basically everything else was provided.  Kitchen has  a full-sized fridge, 2 burner cooktop, microwave, huge sink, and large cabinet space.  
+Little did we know how much we would come to love it here!  Being older and light sleepers, we asked for the 4th floor with not as much traffic. Our room has a great view of beautiful sunsets in the evening. It's even become fun to watch the same vehicles come and go each day in their routines.   
+Our room is cleaned every other week, including linens changed, etc.  Extra towels, plastic cups, etc...Our “In-Between” Home.....While the market was still good after Hurricane Harvey, we sold our Channelview, TX home of 27 years in February 2018.  We then needed a place to stay “in-between” February and our planned retirement to Tennessee in November.  We needed a furnished place just big enough for the two of us that did not require a lease.  It also needed to be affordable, safe, clean, comfy, &amp; friendly.  TripAdvisor had great reviews on this Baytown WoodSpring Suites extended stay, so we gave it a try.  Indeed, it became our “in-between” home!  We put everything in storage except a few weeks of clothes to rotate, some pots and pans, utensils, coffee pot and toaster, our own extra towels and washcloths, etc.  We brought in a few extra little tables for a bit more countertop space and a rolling desk chair for comfy TV watching. Basically everything else was provided.  Kitchen has  a full-sized fridge, 2 burner cooktop, microwave, huge sink, and large cabinet space.  Little did we know how much we would come to love it here!  Being older and light sleepers, we asked for the 4th floor with not as much traffic. Our room has a great view of beautiful sunsets in the evening. It's even become fun to watch the same vehicles come and go each day in their routines.   Our room is cleaned every other week, including linens changed, etc.  Extra towels, plastic cups, etc are available upon request.The laundry room is nice, and being able to “buy” a roll of quarters from the front desk is a huge help.  If you're a Texan, you'll know the fun of having a Bucee's just down the street for take-out food.  Garth Rd has just about any kind of eating and shopping you could want.One of the best parts of staying here is that staff now feels like family :) Jackie, Angie, Cindy, Gary and others always have a smile, a kind word, and eager to help in any way.We’ve been very pleased here and would highly recommend this location!  Indeed, it will be hard to leave when the time comes.  What a God-send and answer to prayer this place has been!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r571500614-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>571500614</t>
+  </si>
+  <si>
+    <t>Helpful, pleasant staff and comfortable room</t>
+  </si>
+  <si>
+    <t>After a long drive with my small children, I was exhausted and ready to sleep.  Room was clean and smelled great.  Rested peacefully and felt safe, which was important to me traveling alone with 3 small children.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>After a long drive with my small children, I was exhausted and ready to sleep.  Room was clean and smelled great.  Rested peacefully and felt safe, which was important to me traveling alone with 3 small children.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r552207348-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>552207348</t>
+  </si>
+  <si>
+    <t>01/07/2018</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>Great staff, quiet, clean, safe and comfortable. Love the full size refrigerators, the large microwaves.  This is great for long stays.  It's like a mini apartment with no bills, laundry machines in the building and everything near by.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>WoodSpring S, General Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded January 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2018</t>
+  </si>
+  <si>
+    <t>Great staff, quiet, clean, safe and comfortable. Love the full size refrigerators, the large microwaves.  This is great for long stays.  It's like a mini apartment with no bills, laundry machines in the building and everything near by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r511105596-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>511105596</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>I was very blessed too have all the staff be so great yhry treated me like family not a guest.</t>
+  </si>
+  <si>
+    <t>I've been in Baytown working and the first hotel I stayed in was a big mistake.  then I was blessed to find woodsprings in Baytown.. the Hotel cleaning woman are off the chain great.  the young man at the desk Chris was so patience and understanding. Ms Cindy the manager was very kind and organized.She we good at tracking funds and that's a win win.Even the serviceman was on the spot helpful. I would only hope the corporate office allows them to give a few amenities to customers of 4 months or more. I will happily return and recommend this hotel in the future. with a the hotels in the area the staff at woodsprings made the choice to stay here a good one. The special care and cleanliness Ms Cindy made sure no bugs or any form of liter would be allowed that's what matters so much to me, especially with a huge clientele of hard working men. Being a woman and feeling safe here was a major plus.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded September 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2017</t>
+  </si>
+  <si>
+    <t>I've been in Baytown working and the first hotel I stayed in was a big mistake.  then I was blessed to find woodsprings in Baytown.. the Hotel cleaning woman are off the chain great.  the young man at the desk Chris was so patience and understanding. Ms Cindy the manager was very kind and organized.She we good at tracking funds and that's a win win.Even the serviceman was on the spot helpful. I would only hope the corporate office allows them to give a few amenities to customers of 4 months or more. I will happily return and recommend this hotel in the future. with a the hotels in the area the staff at woodsprings made the choice to stay here a good one. The special care and cleanliness Ms Cindy made sure no bugs or any form of liter would be allowed that's what matters so much to me, especially with a huge clientele of hard working men. Being a woman and feeling safe here was a major plus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r508803146-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>508803146</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>This is one great hotel!</t>
+  </si>
+  <si>
+    <t>I had the best hotel stay ever, front desk had incredible and courteous service, very friendly people, rooms were very clean overall great! would stay there again! I would recommend this hotel to my friends when they are in town nice area alsoMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>I had the best hotel stay ever, front desk had incredible and courteous service, very friendly people, rooms were very clean overall great! would stay there again! I would recommend this hotel to my friends when they are in town nice area alsoMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r508785071-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>508785071</t>
+  </si>
+  <si>
+    <t>This IS the place to stay</t>
+  </si>
+  <si>
+    <t>I had a very delightful experience with the hotel accommodations. Very helpful staff . and one of the best managers I have ever run across Cyndie. She went the extra mile. She is very knowledgeable about the surroundings, and was able to direct me to a good repair shop for my car. My experience was simply the best and many thanks to the managerMoreShow less</t>
+  </si>
+  <si>
+    <t>I had a very delightful experience with the hotel accommodations. Very helpful staff . and one of the best managers I have ever run across Cyndie. She went the extra mile. She is very knowledgeable about the surroundings, and was able to direct me to a good repair shop for my car. My experience was simply the best and many thanks to the managerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r487753257-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>487753257</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction </t>
+  </si>
+  <si>
+    <t>The staff is friendly and very helpful. The rooms are clean and spacious. Free WiFi, kitchen with full size refrigerator. Has laundry facilities.  I recommend woodspring suites for extended or overnight stays. Is centrally located around restaurants and shopping. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2017</t>
+  </si>
+  <si>
+    <t>The staff is friendly and very helpful. The rooms are clean and spacious. Free WiFi, kitchen with full size refrigerator. Has laundry facilities.  I recommend woodspring suites for extended or overnight stays. Is centrally located around restaurants and shopping. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r482130181-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>482130181</t>
+  </si>
+  <si>
+    <t>05/06/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Service </t>
+  </si>
+  <si>
+    <t>I was staying at Super 8 and Econo Lodge prior to switching to Woodspring, I pay a lower weekly rate here and room has a kitchenette, big fridge so I only need to go for groceries once a week. Room is huge and the beds are very comfortable. Friendly staff. MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded May 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2017</t>
+  </si>
+  <si>
+    <t>I was staying at Super 8 and Econo Lodge prior to switching to Woodspring, I pay a lower weekly rate here and room has a kitchenette, big fridge so I only need to go for groceries once a week. Room is huge and the beds are very comfortable. Friendly staff. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r478686937-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>478686937</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t>Worth the return</t>
+  </si>
+  <si>
+    <t>Excellent again, friendly staff, very clean room, simple but all the basics are covered.  Noticed free Wifi now and that is great!!!  The place is even better than before, quieter, friendlier and the staff seem to know what you need before you ask.  Only thing I would recommend is being able to exchange linen free everyday.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Excellent again, friendly staff, very clean room, simple but all the basics are covered.  Noticed free Wifi now and that is great!!!  The place is even better than before, quieter, friendlier and the staff seem to know what you need before you ask.  Only thing I would recommend is being able to exchange linen free everyday.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r469409636-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>469409636</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t>Happy Customer</t>
+  </si>
+  <si>
+    <t>I highly recommend Wood Spring Inn in Baytown Texas off of Garth rd. Not only is this hotel affordable the service is very friendly and they keep their place very clean. The manager at this hotel is always around and on top of things making sure guest are being taken care of and is always greeting the customers. The persons working at the front desk are also making sure if you need anything. Parking is great. And they are always on top of making sure we have clean linens. Housekeeping does an awesome job. And they have a large clean laundry room.  The stay was greatMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded April 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2017</t>
+  </si>
+  <si>
+    <t>I highly recommend Wood Spring Inn in Baytown Texas off of Garth rd. Not only is this hotel affordable the service is very friendly and they keep their place very clean. The manager at this hotel is always around and on top of things making sure guest are being taken care of and is always greeting the customers. The persons working at the front desk are also making sure if you need anything. Parking is great. And they are always on top of making sure we have clean linens. Housekeeping does an awesome job. And they have a large clean laundry room.  The stay was greatMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r468048830-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>468048830</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Woodsprings baytown</t>
+  </si>
+  <si>
+    <t>By far one of the best hotels I've stayed in a long time. Ladies at the front desk and house keeping do a very good job at attending to our needs in a hurry. And best part they work with you depending on your work shift. Checked in early and no over payment needed! Would definitely recommend this hotel in baytown!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>By far one of the best hotels I've stayed in a long time. Ladies at the front desk and house keeping do a very good job at attending to our needs in a hurry. And best part they work with you depending on your work shift. Checked in early and no over payment needed! Would definitely recommend this hotel in baytown!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r458654928-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>458654928</t>
+  </si>
+  <si>
+    <t>02/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal Experience </t>
+  </si>
+  <si>
+    <t>Really enjoyed my stay, even though the next day the prices jumped to 75.00 a night. Then I had to relocate because it's not worth that. When I first checked in it was 52.00 a night that was the day of the Super Bowl. Day after that the price jumped up 23.00 after that, didn't not understand that at all.The location is great you have access to the mall and so many major food restaurants, which are all in walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Really enjoyed my stay, even though the next day the prices jumped to 75.00 a night. Then I had to relocate because it's not worth that. When I first checked in it was 52.00 a night that was the day of the Super Bowl. Day after that the price jumped up 23.00 after that, didn't not understand that at all.The location is great you have access to the mall and so many major food restaurants, which are all in walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r424537108-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>424537108</t>
+  </si>
+  <si>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel. Very helpful front desk</t>
+  </si>
+  <si>
+    <t>Easy checking in.  Very helpful front desk. Clean room. Very cozy. Up to date inside. Easy access in and out onto the freeway. Parking is plentiful. Onsite laundry room as well. Decently priced for the area. Location is what attracted me. Im here for work and it is close to my job.  Stores and whatnotMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded November 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2016</t>
+  </si>
+  <si>
+    <t>Easy checking in.  Very helpful front desk. Clean room. Very cozy. Up to date inside. Easy access in and out onto the freeway. Parking is plentiful. Onsite laundry room as well. Decently priced for the area. Location is what attracted me. Im here for work and it is close to my job.  Stores and whatnotMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r419964241-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>419964241</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Horne </t>
+  </si>
+  <si>
+    <t>Very helpful and polite staff. Room was clean and nice, definitely been in worse. Air conditioning worked well, nice laundry facilities and comfy beds. The receptionist was very nice and helpful with getting me booked</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r415958168-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>415958168</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horrible Experience, So Loud-On Interstate </t>
+  </si>
+  <si>
+    <t>I'd like to know how in the world somebody could experience an excellent stay at this hotel. You'll see I have many amazing reviews &amp; very few poor reviews so when I do it means something. Upon check-in the girl at check-in was rude, there was a dead roach in the bathroom, the room was fairly clean, the refrigerator smelt,  the bed was soooooo very uncomfortable, it's right off the interstate so it was very loud, while we were there what I am sure is sewage backed up into the tub call front desk again very uncaring. I could go on and on but no point in it. This may be a necessity for people that are staying long term but would never recommend it for anyone. The only reason we stayed here is the typical hotel we stayed at was fully booked and this was close to that location we usually stay. What a mistake on our part we ended up checking out and they would not issue a refund we bit the bullet and at a cost lost left anyway with the room paid for an additional 2 days yes it was that bad!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2016</t>
+  </si>
+  <si>
+    <t>I'd like to know how in the world somebody could experience an excellent stay at this hotel. You'll see I have many amazing reviews &amp; very few poor reviews so when I do it means something. Upon check-in the girl at check-in was rude, there was a dead roach in the bathroom, the room was fairly clean, the refrigerator smelt,  the bed was soooooo very uncomfortable, it's right off the interstate so it was very loud, while we were there what I am sure is sewage backed up into the tub call front desk again very uncaring. I could go on and on but no point in it. This may be a necessity for people that are staying long term but would never recommend it for anyone. The only reason we stayed here is the typical hotel we stayed at was fully booked and this was close to that location we usually stay. What a mistake on our part we ended up checking out and they would not issue a refund we bit the bullet and at a cost lost left anyway with the room paid for an additional 2 days yes it was that bad!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r404232419-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>404232419</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>Pretty good i guess</t>
+  </si>
+  <si>
+    <t>First off the value place has gone way up on their weekly rate in the past 3 years, inflation i guess. That aside, the rooms are relatively updated. Our first room had fleas pretty bad, but the manager was super cool about it, and got us into a new room in like 5 minutes. All in all, pretty good hotel for refinery workers.Room 222MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded August 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2016</t>
+  </si>
+  <si>
+    <t>First off the value place has gone way up on their weekly rate in the past 3 years, inflation i guess. That aside, the rooms are relatively updated. Our first room had fleas pretty bad, but the manager was super cool about it, and got us into a new room in like 5 minutes. All in all, pretty good hotel for refinery workers.Room 222More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r402606113-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>402606113</t>
+  </si>
+  <si>
+    <t>08/07/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value Place </t>
+  </si>
+  <si>
+    <t>The room is clean and well kept. Very nice and comfortable. The rates are reasonable. They have security cameras and an elevator. There is a large mall right beside it. There are lots of different types of stores and restaurants within 2 miles. There are automobile services nearby. MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded September 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2016</t>
+  </si>
+  <si>
+    <t>The room is clean and well kept. Very nice and comfortable. The rates are reasonable. They have security cameras and an elevator. There is a large mall right beside it. There are lots of different types of stores and restaurants within 2 miles. There are automobile services nearby. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r402591467-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>402591467</t>
+  </si>
+  <si>
+    <t>Awesome service</t>
+  </si>
+  <si>
+    <t>Awesome service, thanks to Jane for checking us in . it also very convenient to near by stores an eatery. Rooms are a A+ As soon as we arrived we were greeted and checked in fast. Gave us a special of the day. MoreShow less</t>
+  </si>
+  <si>
+    <t>Awesome service, thanks to Jane for checking us in . it also very convenient to near by stores an eatery. Rooms are a A+ As soon as we arrived we were greeted and checked in fast. Gave us a special of the day. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r401494375-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>401494375</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>Love this place! Rooms are great nice and cool, bathrooms are plenty big there is lots of space for storage. They even give you a laundry basket!!! Come on, cook on a stove microwave whatever you like, good size fridge.  I love it, I recommend it, and that's all thanks,                    ~mike~MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded August 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2016</t>
+  </si>
+  <si>
+    <t>Love this place! Rooms are great nice and cool, bathrooms are plenty big there is lots of space for storage. They even give you a laundry basket!!! Come on, cook on a stove microwave whatever you like, good size fridge.  I love it, I recommend it, and that's all thanks,                    ~mike~More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r401488645-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>401488645</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Hotel is clean, love the space, it's convenient for surrounding areas but my only complaint is the VERY first nite I was Double charged for 8 days when it was supposed to be half cash and half on the CC.. yet the lady at the front desk gave my wife static about a refund which is totally unacceptable....We talking about professionalism.....MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel is clean, love the space, it's convenient for surrounding areas but my only complaint is the VERY first nite I was Double charged for 8 days when it was supposed to be half cash and half on the CC.. yet the lady at the front desk gave my wife static about a refund which is totally unacceptable....We talking about professionalism.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r398489042-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>398489042</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>Clean and Friendly!</t>
+  </si>
+  <si>
+    <t>The rooms are very clean and the staff are so very nice friendly. They are located close to lots of major restaurants and a mall. The rooms have plenty of space including a kitchenette with a stove top and a full sized refrigerator! I wish these were apartments!MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms are very clean and the staff are so very nice friendly. They are located close to lots of major restaurants and a mall. The rooms have plenty of space including a kitchenette with a stove top and a full sized refrigerator! I wish these were apartments!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r395673082-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>395673082</t>
+  </si>
+  <si>
+    <t>07/22/2016</t>
+  </si>
+  <si>
+    <t>The Ventura family.</t>
+  </si>
+  <si>
+    <t>Jane is amazing, she was great with my son!! She made us feel like family. If you get a chance to stay here do!! When we got to the room it was clean and had that clean smell. The maintenance guy was helpful and so sweet.(I forgot his name). But the best stay I have ever had.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jane is amazing, she was great with my son!! She made us feel like family. If you get a chance to stay here do!! When we got to the room it was clean and had that clean smell. The maintenance guy was helpful and so sweet.(I forgot his name). But the best stay I have ever had.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r395630784-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>395630784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and convenient </t>
+  </si>
+  <si>
+    <t>Jane at the front desk was very polite and must say very attractive, lol. Going to enjoy my visit very much, hope I'm here longer than a few months. The rate is affordable and the rooms are actually cosy with the range, full size refrigerator and sink. Kind of a home away from home, just better since you've got maid service here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jane at the front desk was very polite and must say very attractive, lol. Going to enjoy my visit very much, hope I'm here longer than a few months. The rate is affordable and the rooms are actually cosy with the range, full size refrigerator and sink. Kind of a home away from home, just better since you've got maid service here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r394087751-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>394087751</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>Very clean place. Friendly staff. Close to a lot of restaurants. The people there are working men. Our room has a kitchen a fridge an microwave. Very useful. Also,it's non smoking so if you staying 3rd or 4th floor be prepare to walk down a lot or take elevator. No pool an no coffee pot. So if you drink coffee bring your own. MoreShow less</t>
+  </si>
+  <si>
+    <t>Very clean place. Friendly staff. Close to a lot of restaurants. The people there are working men. Our room has a kitchen a fridge an microwave. Very useful. Also,it's non smoking so if you staying 3rd or 4th floor be prepare to walk down a lot or take elevator. No pool an no coffee pot. So if you drink coffee bring your own. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r392684361-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>392684361</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Mrs. Jane at the front desk was amazing .. she was extremely helpful.. definitely the place to stay if your in baytown... the room was immaculate the full fridge and stove was definitely a big plus ... the laundry mat was extremely useful as well MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded July 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2016</t>
+  </si>
+  <si>
+    <t>Mrs. Jane at the front desk was amazing .. she was extremely helpful.. definitely the place to stay if your in baytown... the room was immaculate the full fridge and stove was definitely a big plus ... the laundry mat was extremely useful as well More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r390520009-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>390520009</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t>Great location! Location! And friendly staff etc....</t>
+  </si>
+  <si>
+    <t>My husband transferred here and room feels like a small studio apartment. The location is fantastic. There are more restaurants than you can shake a leg at. You can find almost everything on Garth road. We've been here over a month and would highly recommend this hotel for value for your money.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>My husband transferred here and room feels like a small studio apartment. The location is fantastic. There are more restaurants than you can shake a leg at. You can find almost everything on Garth road. We've been here over a month and would highly recommend this hotel for value for your money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r389248889-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>389248889</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t>Very Clean and great staff</t>
+  </si>
+  <si>
+    <t>This hotel was super clean. I am always skeptical about hotels and how much they care about how clean the floor is. My baby is constantly crawling. So, we stayed at this hotel in Baytown and it was as clean a hotel as I have ever seen. The people were great too! I stopped and asked directions from the front desk person... I think her name was Faith. And we found all the places we were going without trouble. We stopped by to check out and met the manager, Cynthia. Again, super nice. If we ever come back to this area we are staying at the Value PlaceMoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was super clean. I am always skeptical about hotels and how much they care about how clean the floor is. My baby is constantly crawling. So, we stayed at this hotel in Baytown and it was as clean a hotel as I have ever seen. The people were great too! I stopped and asked directions from the front desk person... I think her name was Faith. And we found all the places we were going without trouble. We stopped by to check out and met the manager, Cynthia. Again, super nice. If we ever come back to this area we are staying at the Value PlaceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r388396255-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>388396255</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Very comfortable.  It is comfortable enough to be home</t>
+  </si>
+  <si>
+    <t>The rooms are a nice size.  The cooking area allows you to make home cooked meals.  I have stayed here a very long time.  It is convenient to sopping, food and just about anything you want to do in Baytown.  The staff is friendly and very helpful.  I have stayed in several different rooms.  The beds are very comfortable.  Gwyn CMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>The rooms are a nice size.  The cooking area allows you to make home cooked meals.  I have stayed here a very long time.  It is convenient to sopping, food and just about anything you want to do in Baytown.  The staff is friendly and very helpful.  I have stayed in several different rooms.  The beds are very comfortable.  Gwyn CMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r387603154-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>387603154</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Nice rooms with a kitchen</t>
+  </si>
+  <si>
+    <t>Rooms are big with a kitchen so I am able to cook and have a full size fridge . Nice with comfortable beds . We stay here every time my husband works in the area. We are right by the mall so I can take our son to the arcade or a movie. There are lots of places to eat out near by and also close to other stores as well. They also have a laundry on sight so it is almost like being at home. We call it home away from home. The staff is always nice and helpful .MoreShow less</t>
+  </si>
+  <si>
+    <t>Rooms are big with a kitchen so I am able to cook and have a full size fridge . Nice with comfortable beds . We stay here every time my husband works in the area. We are right by the mall so I can take our son to the arcade or a movie. There are lots of places to eat out near by and also close to other stores as well. They also have a laundry on sight so it is almost like being at home. We call it home away from home. The staff is always nice and helpful .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r387592553-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>387592553</t>
+  </si>
+  <si>
+    <t>Great find! Nice location, super clean, and friendly staff</t>
+  </si>
+  <si>
+    <t>I was in a pinch and needs a hotel for a week. I found the Value Place because they had a great rate. I found thethe hotel to be oof the cleanest I have ever stayed in. The person at the front desk was so nice and even recommended some mexican food nearby. I think her name was faith. I will definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was in a pinch and needs a hotel for a week. I found the Value Place because they had a great rate. I found thethe hotel to be oof the cleanest I have ever stayed in. The person at the front desk was so nice and even recommended some mexican food nearby. I think her name was faith. I will definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r360508663-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>360508663</t>
+  </si>
+  <si>
+    <t>03/31/2016</t>
+  </si>
+  <si>
+    <t>Clean rooms and value priced but everything costs extra</t>
+  </si>
+  <si>
+    <t>My husband and I stayed 5 nights here while he was working in area and at $70/night, it was very affordable. The room was clean, ac worked fine and beds were ok. However, everything is extra. If you want internet, it costs extra. If you want pots, pans or dishes, they are extra. If you want extra linens/towels, your room cleaned a coffee pot, or shampoo, it costs extra. Area is near mall and does feel safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded April 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I stayed 5 nights here while he was working in area and at $70/night, it was very affordable. The room was clean, ac worked fine and beds were ok. However, everything is extra. If you want internet, it costs extra. If you want pots, pans or dishes, they are extra. If you want extra linens/towels, your room cleaned a coffee pot, or shampoo, it costs extra. Area is near mall and does feel safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r356935281-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>356935281</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>OMGosh!</t>
+  </si>
+  <si>
+    <t>This hotel was A-MA-ZING! It felt more like staying with family than a hotel. The staff and other guests looked after me and each other full time, accommodated every need, and more. Security was top notch (they wouldn't even let in my 70-year-old, deaf mother - they called me down to escort her in), and the room was EXACTLY what I wanted, needed, and WAY more than I expected, given the rate I paid. Comfy bed, good a/c, and all the basics. I travel to Baytown a lot to see family, and this will be my go-to hotel from now on. Great location, great rates, great atmosphere, and best of all: over-the-top staff. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded March 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2016</t>
+  </si>
+  <si>
+    <t>This hotel was A-MA-ZING! It felt more like staying with family than a hotel. The staff and other guests looked after me and each other full time, accommodated every need, and more. Security was top notch (they wouldn't even let in my 70-year-old, deaf mother - they called me down to escort her in), and the room was EXACTLY what I wanted, needed, and WAY more than I expected, given the rate I paid. Comfy bed, good a/c, and all the basics. I travel to Baytown a lot to see family, and this will be my go-to hotel from now on. Great location, great rates, great atmosphere, and best of all: over-the-top staff. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r352274501-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>352274501</t>
+  </si>
+  <si>
+    <t>03/01/2016</t>
+  </si>
+  <si>
+    <t>Seeing positive changes</t>
+  </si>
+  <si>
+    <t>I have been staying here in Baytown for about 4 months . Last  week Charles took over management and I can see changes. Very professional and stop and talk to me for a few here an there and I believe he's a  man of is word. Great hire for Value Place Hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>I have been staying here in Baytown for about 4 months . Last  week Charles took over management and I can see changes. Very professional and stop and talk to me for a few here an there and I believe he's a  man of is word. Great hire for Value Place Hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r300906584-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>300906584</t>
+  </si>
+  <si>
+    <t>08/18/2015</t>
+  </si>
+  <si>
+    <t>DONT STAY HERE UNLESS YOU ENJOY BEING TREATED LIKE CRAP</t>
+  </si>
+  <si>
+    <t>Horrible GM... Is not helpful.. very rude.. I went down to renew, and paid $366 the week before... the sign outside says $319 with tax is $366.. but when i went down...she tried to charge me $436..i said, what gives... she says.. thats only the internet price... i said.. no, not just the internet price... its the price on the sign... she said well thats what it comes to with tax... I said really? There is no county or city of baytown tax, only the state tax..... I said, its over $100 in tax... she said yes... I said do you think i am a moron... I went back outside... reserved on my phone and came back in and got it for the $366... She was very rude... She needs to treat guests with respect... this is her revenue... Horrible place... I wont stay here again...MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded August 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2015</t>
+  </si>
+  <si>
+    <t>Horrible GM... Is not helpful.. very rude.. I went down to renew, and paid $366 the week before... the sign outside says $319 with tax is $366.. but when i went down...she tried to charge me $436..i said, what gives... she says.. thats only the internet price... i said.. no, not just the internet price... its the price on the sign... she said well thats what it comes to with tax... I said really? There is no county or city of baytown tax, only the state tax..... I said, its over $100 in tax... she said yes... I said do you think i am a moron... I went back outside... reserved on my phone and came back in and got it for the $366... She was very rude... She needs to treat guests with respect... this is her revenue... Horrible place... I wont stay here again...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r270271953-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>270271953</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>Would stay again</t>
+  </si>
+  <si>
+    <t>I needed a place to stay for a medical appointment, so I checked TripAdvisor.    When I went to check it out, the staff was very accommodating and friendly.  My room was clean, the place was quiet, and the A/C worked great.  Easy access to Starbucks, the mall, restaurants, and Interstate. I would definitely stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded June 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2015</t>
+  </si>
+  <si>
+    <t>I needed a place to stay for a medical appointment, so I checked TripAdvisor.    When I went to check it out, the staff was very accommodating and friendly.  My room was clean, the place was quiet, and the A/C worked great.  Easy access to Starbucks, the mall, restaurants, and Interstate. I would definitely stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r261094813-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>261094813</t>
+  </si>
+  <si>
+    <t>03/22/2015</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>My coworker &amp; I did not like being here. At first it was OK but later management changed and everything went down. Personnel were not very helpful and treated my coworkers rude. It was noisy &amp; not comfortable. Not enough soaps or bathroom necessities. We don't recommend, especially if you do not speak perfect English.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>My coworker &amp; I did not like being here. At first it was OK but later management changed and everything went down. Personnel were not very helpful and treated my coworkers rude. It was noisy &amp; not comfortable. Not enough soaps or bathroom necessities. We don't recommend, especially if you do not speak perfect English.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r226138893-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>226138893</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>Excellent Everything!!!</t>
+  </si>
+  <si>
+    <t>My boyfriend and I have had nothing but an excellent experience with the Value Place! The hotel manager, Jermaine and all of the other staff as well have been nothing but friendly, helpful and completely professional! The rates are great, the rooms are well kept and clean, the property overall is a clean, respectful place. I would recommend this hotel to anyone looking for a clean, safe and reasonably priced place to stay for any period of time!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded December 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2014</t>
+  </si>
+  <si>
+    <t>My boyfriend and I have had nothing but an excellent experience with the Value Place! The hotel manager, Jermaine and all of the other staff as well have been nothing but friendly, helpful and completely professional! The rates are great, the rooms are well kept and clean, the property overall is a clean, respectful place. I would recommend this hotel to anyone looking for a clean, safe and reasonably priced place to stay for any period of time!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r225693599-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>225693599</t>
+  </si>
+  <si>
+    <t>08/31/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome place to stay!! </t>
+  </si>
+  <si>
+    <t>Clean, comfortable, positive atmosphere. Jermaine and the staff here have great attitudes and provide prompt and professional service. I would recommend any one for a pleasant peaceful stay with nearby shopping and restaurants to choose the Value Place!MoreShow less</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, positive atmosphere. Jermaine and the staff here have great attitudes and provide prompt and professional service. I would recommend any one for a pleasant peaceful stay with nearby shopping and restaurants to choose the Value Place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r223262972-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>223262972</t>
+  </si>
+  <si>
+    <t>08/20/2014</t>
+  </si>
+  <si>
+    <t>Incredible stay</t>
+  </si>
+  <si>
+    <t>I had a very pleasant stay at this hotel. The staff was very attentive your room is for a very clean and the overall perception was a very pleasant one. I would recommend anyone staying out of town for more than a week to stop here for a clean friendly safe place to stayMoreShow less</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded August 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2014</t>
+  </si>
+  <si>
+    <t>I had a very pleasant stay at this hotel. The staff was very attentive your room is for a very clean and the overall perception was a very pleasant one. I would recommend anyone staying out of town for more than a week to stop here for a clean friendly safe place to stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r213525544-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>213525544</t>
+  </si>
+  <si>
+    <t>07/03/2014</t>
+  </si>
+  <si>
+    <t>Great home away from home</t>
+  </si>
+  <si>
+    <t>Great, clean, super sage extended stay. Staff was super friendly and helpful. I would definitely recommend this place to any family or friend visiting baytown. The cameras made me feel safe and and secure, as well as the Locked laundry facility.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great, clean, super sage extended stay. Staff was super friendly and helpful. I would definitely recommend this place to any family or friend visiting baytown. The cameras made me feel safe and and secure, as well as the Locked laundry facility.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r211548455-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>211548455</t>
+  </si>
+  <si>
+    <t>06/22/2014</t>
+  </si>
+  <si>
+    <t>Great staff, very clean, over all very impressive extended stay!</t>
+  </si>
+  <si>
+    <t>This place was great! The staff was super friendly, the rooms were pristine, and I felt very safe with all the cameras and protected doors. I would definitely recommend this to anyone visiting baytown!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r210189409-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>210189409</t>
+  </si>
+  <si>
+    <t>06/13/2014</t>
+  </si>
+  <si>
+    <t>Our stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We think the stuff and mangement are a cut above the rest. We have really been pleased with how easy our stay has been. Management has been more then expected. We will continue to use this property now and in future. </t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r205803115-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>205803115</t>
+  </si>
+  <si>
+    <t>05/16/2014</t>
+  </si>
+  <si>
+    <t>Very clean and helpful staff!</t>
+  </si>
+  <si>
+    <t>I recently stayed at Value Place with some of my other employees. It was very affordable and the rooms were extremely clean. A lot better than what I expected for the price. The manager and head over safety were extremely friendly and helpful. Our company is doing a lot of business in Houston. We will definitely be coming back!</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r205733818-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>205733818</t>
+  </si>
+  <si>
+    <t>05/15/2014</t>
+  </si>
+  <si>
+    <t>A very nice place to stay</t>
+  </si>
+  <si>
+    <t>I was working in the Baytown area from Late December 2013 to the middle of May 2014 and stayed here the entire time. Excellent ground floor room and very clean. I want to thank the staff including Jermaine, Joe, Simon, Kim and Yolanda for making the stay extra nice. It was clean, quiet, and reasonably priced. Just as I was leaving they replaced all the mattresses and are in the process of hooking up a new Wi-Fi system so it will be even better now. Excellent location. This was my third stay in a Value Place around the US and the Baytown location lived up to and exceeded the standards expected. This would definitely be my first choice if I am ever in the Baytown area again. Thanks again to all the staff.     Ken W.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was working in the Baytown area from Late December 2013 to the middle of May 2014 and stayed here the entire time. Excellent ground floor room and very clean. I want to thank the staff including Jermaine, Joe, Simon, Kim and Yolanda for making the stay extra nice. It was clean, quiet, and reasonably priced. Just as I was leaving they replaced all the mattresses and are in the process of hooking up a new Wi-Fi system so it will be even better now. Excellent location. This was my third stay in a Value Place around the US and the Baytown location lived up to and exceeded the standards expected. This would definitely be my first choice if I am ever in the Baytown area again. Thanks again to all the staff.     Ken W.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r205265731-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>205265731</t>
+  </si>
+  <si>
+    <t>05/12/2014</t>
+  </si>
+  <si>
+    <t>Love it here!</t>
+  </si>
+  <si>
+    <t>Just want to say thank you to the value place team. You all make my stay incredible. From Joes smiling face and eagerness to help, Simon who dropped everything to replace my a/c the second I said something was wrong. Jermaine who got us in after the reservations department booked our stay incorrectly twice. Kim who makes sure the building and rooms are always clean and ready to accept the next guest. Thanks Guys.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r203733288-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>203733288</t>
+  </si>
+  <si>
+    <t>05/02/2014</t>
+  </si>
+  <si>
+    <t>My Review</t>
+  </si>
+  <si>
+    <t>They are a great group of people who care about everyone Joe, Simon, Ms Yolanda they are the greatest i would visit again and i refer my friends to stop by and they that crew out they are the bestTHANKSDARRELL McGinty</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r203433585-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>203433585</t>
+  </si>
+  <si>
+    <t>04/30/2014</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>The lady at the desk is a real pain but the guy Simon Yolanda is a real help real nice guy and good worker. He kept me with fresh towels and helped us out and every way. Everybody else is cool besides that lady at the front desk nasty attitude and never answers the phone.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r203350642-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>203350642</t>
+  </si>
+  <si>
+    <t>04/29/2014</t>
+  </si>
+  <si>
+    <t>Most clean &amp; organized hotel.</t>
+  </si>
+  <si>
+    <t>Value place is great! It felt like home living there for the few months I stayed here. At first it wasn't as good as it is now.   My favorite person is The new Manager Jermaine he is awesome! Since he's been there it's been great .  Everything been going good. He's my favorite ! Other then that The employees are friendly &amp; nice also ! The only employee I can say is not so good as the others is Dee , she's very rude! . I suggest this hotel to stay though, best one I've been to, very clean &amp; love the employees ! Manager Jermaine needs to STAY AROUND , he's great,  MoreShow less</t>
+  </si>
+  <si>
+    <t>Value place is great! It felt like home living there for the few months I stayed here. At first it wasn't as good as it is now.   My favorite person is The new Manager Jermaine he is awesome! Since he's been there it's been great .  Everything been going good. He's my favorite ! Other then that The employees are friendly &amp; nice also ! The only employee I can say is not so good as the others is Dee , she's very rude! . I suggest this hotel to stay though, best one I've been to, very clean &amp; love the employees ! Manager Jermaine needs to STAY AROUND , he's great,  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r197949540-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>197949540</t>
+  </si>
+  <si>
+    <t>03/19/2014</t>
+  </si>
+  <si>
+    <t>Value place in Baytown is Great</t>
+  </si>
+  <si>
+    <t>This hotel is great. Nice and clean , great service , rooms are good! I feel at home here. Employees are nice. The best ones are the maintenance Guy &amp; the maintenance lady Simon &amp; Yolanda. They are absolutely WONDERFUL. Always smiles , very friendly to me and my family , they are such nice people. They make me feel like great . This hotel is awesome!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r197203579-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>197203579</t>
+  </si>
+  <si>
+    <t>03/12/2014</t>
+  </si>
+  <si>
+    <t>Awesome Hotel!!!!</t>
+  </si>
+  <si>
+    <t>We stay in hotels all over the United States, this is by far the best! the staff is great! Simon and Yolonda are great! They are always there to help out when you need something! They always have smiles and something nice to say! Joe and Dei up front is always super nice and very helpful also! The Hotel is always clean and safe to be in! you have to have a key card to get in the building and anywhere in the building! nice large laundry room that is kept very clean. Value Place is located right beside the San Jacinto mall! theres plenty of places to eat!</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r197193684-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>197193684</t>
+  </si>
+  <si>
+    <t>Convenient</t>
+  </si>
+  <si>
+    <t>My husband and I are seeking a home and didn't want to stay in an apartment so we came to Value Place. Simon Rodriguez and Yolanda Buitureida have been extremely pleasant and more than helpful making our stay more comfortable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r195788141-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>195788141</t>
+  </si>
+  <si>
+    <t>03/01/2014</t>
+  </si>
+  <si>
+    <t>Just the basics in a Home away from home.</t>
+  </si>
+  <si>
+    <t>The hotel had all the basics for an extended stay. The kitchenette was perfect. The staff Joe and Sarah Odom, the manager were friendly. I would go back again. Its right next to the san Jacinto Mall and there are restaurants in the same area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Sarah O, Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded March 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2014</t>
+  </si>
+  <si>
+    <t>The hotel had all the basics for an extended stay. The kitchenette was perfect. The staff Joe and Sarah Odom, the manager were friendly. I would go back again. Its right next to the san Jacinto Mall and there are restaurants in the same area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r166686629-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>166686629</t>
+  </si>
+  <si>
+    <t>07/07/2013</t>
+  </si>
+  <si>
+    <t>Great Value -ValuePlace Baytown</t>
+  </si>
+  <si>
+    <t>I stayed at this location for about 2 months for a summer internship in the area. Being not from the area I found it to be situated in a great location, right next to the San Jacinto Mall which has department stores, and most importantly, a movie theater within walking distance! There are many restaurants nearby (almost any chain restaurant you can think of) and all the usual fast good joints, which makes it really easy to get a quick dinner. Also, there are dozens of additional food options all along Garth Rd for a stretch of about 3 miles, grocery stores (Target, Walmart, Kroger), and any other type of retail possible. On the weekends, this location is also a reasonable drive away from attractions in the greater Houston area, such as the Kemah Boardwalk (30 minute drive). As far as the facilities go, the property is fairly new (about 4 years old) and incredibly well kept. The rooms are in absolutely perfect condition with practically new furniture, kitchen appliances, and a Flat screen LCD (which was added during my stay). The property felt very safe since all doors were locked and required card access. Another important thing to point out - this is a completely non-smoking facility, which is a huge advantage compared to other extended-type places I've stayed at in the past. The maintenance and upkeep is incredibly well. I would like to point out how much the...I stayed at this location for about 2 months for a summer internship in the area. Being not from the area I found it to be situated in a great location, right next to the San Jacinto Mall which has department stores, and most importantly, a movie theater within walking distance! There are many restaurants nearby (almost any chain restaurant you can think of) and all the usual fast good joints, which makes it really easy to get a quick dinner. Also, there are dozens of additional food options all along Garth Rd for a stretch of about 3 miles, grocery stores (Target, Walmart, Kroger), and any other type of retail possible. On the weekends, this location is also a reasonable drive away from attractions in the greater Houston area, such as the Kemah Boardwalk (30 minute drive). As far as the facilities go, the property is fairly new (about 4 years old) and incredibly well kept. The rooms are in absolutely perfect condition with practically new furniture, kitchen appliances, and a Flat screen LCD (which was added during my stay). The property felt very safe since all doors were locked and required card access. Another important thing to point out - this is a completely non-smoking facility, which is a huge advantage compared to other extended-type places I've stayed at in the past. The maintenance and upkeep is incredibly well. I would like to point out how much the staff really cares about the facility and is invested in it, it really showed. The entire property is spotless (clean hallways, parking lot and laundry facilities). The room cleaning service is excellent! The staff at the front desk, Sarah and Brian, were very nice and welcoming, and very helpful in resolving any issues instantly. I highly recommend this place, whether you're one person, a couple or a family. You get a great value for what you pay, truly a value place!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded July 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2013</t>
+  </si>
+  <si>
+    <t>I stayed at this location for about 2 months for a summer internship in the area. Being not from the area I found it to be situated in a great location, right next to the San Jacinto Mall which has department stores, and most importantly, a movie theater within walking distance! There are many restaurants nearby (almost any chain restaurant you can think of) and all the usual fast good joints, which makes it really easy to get a quick dinner. Also, there are dozens of additional food options all along Garth Rd for a stretch of about 3 miles, grocery stores (Target, Walmart, Kroger), and any other type of retail possible. On the weekends, this location is also a reasonable drive away from attractions in the greater Houston area, such as the Kemah Boardwalk (30 minute drive). As far as the facilities go, the property is fairly new (about 4 years old) and incredibly well kept. The rooms are in absolutely perfect condition with practically new furniture, kitchen appliances, and a Flat screen LCD (which was added during my stay). The property felt very safe since all doors were locked and required card access. Another important thing to point out - this is a completely non-smoking facility, which is a huge advantage compared to other extended-type places I've stayed at in the past. The maintenance and upkeep is incredibly well. I would like to point out how much the...I stayed at this location for about 2 months for a summer internship in the area. Being not from the area I found it to be situated in a great location, right next to the San Jacinto Mall which has department stores, and most importantly, a movie theater within walking distance! There are many restaurants nearby (almost any chain restaurant you can think of) and all the usual fast good joints, which makes it really easy to get a quick dinner. Also, there are dozens of additional food options all along Garth Rd for a stretch of about 3 miles, grocery stores (Target, Walmart, Kroger), and any other type of retail possible. On the weekends, this location is also a reasonable drive away from attractions in the greater Houston area, such as the Kemah Boardwalk (30 minute drive). As far as the facilities go, the property is fairly new (about 4 years old) and incredibly well kept. The rooms are in absolutely perfect condition with practically new furniture, kitchen appliances, and a Flat screen LCD (which was added during my stay). The property felt very safe since all doors were locked and required card access. Another important thing to point out - this is a completely non-smoking facility, which is a huge advantage compared to other extended-type places I've stayed at in the past. The maintenance and upkeep is incredibly well. I would like to point out how much the staff really cares about the facility and is invested in it, it really showed. The entire property is spotless (clean hallways, parking lot and laundry facilities). The room cleaning service is excellent! The staff at the front desk, Sarah and Brian, were very nice and welcoming, and very helpful in resolving any issues instantly. I highly recommend this place, whether you're one person, a couple or a family. You get a great value for what you pay, truly a value place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r156022513-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>156022513</t>
+  </si>
+  <si>
+    <t>03/29/2013</t>
+  </si>
+  <si>
+    <t>Feels like home</t>
+  </si>
+  <si>
+    <t>this place is bare bones, but they know that. It's cheap, but it's clean. I feel safe here. The staff treat you like family. I could pay $100 a night and get a lot more things I don't really need, but this hotel offers me a room that feels like my own house, and a staff that always has a smile. Especially the housekeeper and assistant manager. They know me by name and always make sure I have what I need. I will be back again! I like walking in and hearing the staff call me by name. I have been here several months and have had no problems.the internet could use an upgrade.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Jeff H, Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded July 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2013</t>
+  </si>
+  <si>
+    <t>this place is bare bones, but they know that. It's cheap, but it's clean. I feel safe here. The staff treat you like family. I could pay $100 a night and get a lot more things I don't really need, but this hotel offers me a room that feels like my own house, and a staff that always has a smile. Especially the housekeeper and assistant manager. They know me by name and always make sure I have what I need. I will be back again! I like walking in and hearing the staff call me by name. I have been here several months and have had no problems.the internet could use an upgrade.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r91339241-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>91339241</t>
+  </si>
+  <si>
+    <t>01/01/2011</t>
+  </si>
+  <si>
+    <t>Good value for price</t>
+  </si>
+  <si>
+    <t>I was here for two months.  I felt very safe.  There is on site security.  The couple who lives on site were fantastic.  Really felt like coming home.  This is a new place and very clean.  This is definitely bare bones and it would be really tough to stay here for a long time.  Considering where I was working, this was about the best  deal.  Good for a budget conscious traveller.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>Heather L, Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded July 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2012</t>
+  </si>
+  <si>
+    <t>I was here for two months.  I felt very safe.  There is on site security.  The couple who lives on site were fantastic.  Really felt like coming home.  This is a new place and very clean.  This is definitely bare bones and it would be really tough to stay here for a long time.  Considering where I was working, this was about the best  deal.  Good for a budget conscious traveller.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r66017594-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>66017594</t>
+  </si>
+  <si>
+    <t>06/01/2010</t>
+  </si>
+  <si>
+    <t>This place sucks!</t>
+  </si>
+  <si>
+    <t>I had to stay at this hotel while working out of town for business.  First empression was it was a nice place.  Then after checking in I realized I was completely wrong.  The price is great but you know that old saying you get what you pay for.  1st of all everything in this hotel is hard.  The bed is a mattress on a plywood base.  No box spring.  You might as well be sleeping a wood floor.  Next, your told your room will be cleaned every two weeks.  My room only got cleaned twice while I was there.  I checked in in March and stayed for 4 months.  The only reason my room got cleaned those times is because my wife called and complained to the corporate office after multiple attempts of speaking witht the General Manager "Rick".  We were never offered a discount for not getting my room cleaned but they are eager to charge you if you want any extra service.  Finally, they couldn't keep our bill straight.  We were due to pay each week on Tuesday.  But most of the time we pre-paid for the upcoming week.   I would come back to the hotel on a Friday and find my room is clocked out and them saying I owed again.  If it weren't for my wife keeping reciepts of our payment they would have made me pay extra.  We had to argue with them every week...I had to stay at this hotel while working out of town for business.  First empression was it was a nice place.  Then after checking in I realized I was completely wrong.  The price is great but you know that old saying you get what you pay for.  1st of all everything in this hotel is hard.  The bed is a mattress on a plywood base.  No box spring.  You might as well be sleeping a wood floor.  Next, your told your room will be cleaned every two weeks.  My room only got cleaned twice while I was there.  I checked in in March and stayed for 4 months.  The only reason my room got cleaned those times is because my wife called and complained to the corporate office after multiple attempts of speaking witht the General Manager "Rick".  We were never offered a discount for not getting my room cleaned but they are eager to charge you if you want any extra service.  Finally, they couldn't keep our bill straight.  We were due to pay each week on Tuesday.  But most of the time we pre-paid for the upcoming week.   I would come back to the hotel on a Friday and find my room is clocked out and them saying I owed again.  If it weren't for my wife keeping reciepts of our payment they would have made me pay extra.  We had to argue with them every week about this.  Also this hotel is right up by I-10 and is poorly built.  You here freeway traffic all hours of the day and night.  Just as if you were standing outside by the freeway.  I would not recommend this hotel to anyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>I had to stay at this hotel while working out of town for business.  First empression was it was a nice place.  Then after checking in I realized I was completely wrong.  The price is great but you know that old saying you get what you pay for.  1st of all everything in this hotel is hard.  The bed is a mattress on a plywood base.  No box spring.  You might as well be sleeping a wood floor.  Next, your told your room will be cleaned every two weeks.  My room only got cleaned twice while I was there.  I checked in in March and stayed for 4 months.  The only reason my room got cleaned those times is because my wife called and complained to the corporate office after multiple attempts of speaking witht the General Manager "Rick".  We were never offered a discount for not getting my room cleaned but they are eager to charge you if you want any extra service.  Finally, they couldn't keep our bill straight.  We were due to pay each week on Tuesday.  But most of the time we pre-paid for the upcoming week.   I would come back to the hotel on a Friday and find my room is clocked out and them saying I owed again.  If it weren't for my wife keeping reciepts of our payment they would have made me pay extra.  We had to argue with them every week...I had to stay at this hotel while working out of town for business.  First empression was it was a nice place.  Then after checking in I realized I was completely wrong.  The price is great but you know that old saying you get what you pay for.  1st of all everything in this hotel is hard.  The bed is a mattress on a plywood base.  No box spring.  You might as well be sleeping a wood floor.  Next, your told your room will be cleaned every two weeks.  My room only got cleaned twice while I was there.  I checked in in March and stayed for 4 months.  The only reason my room got cleaned those times is because my wife called and complained to the corporate office after multiple attempts of speaking witht the General Manager "Rick".  We were never offered a discount for not getting my room cleaned but they are eager to charge you if you want any extra service.  Finally, they couldn't keep our bill straight.  We were due to pay each week on Tuesday.  But most of the time we pre-paid for the upcoming week.   I would come back to the hotel on a Friday and find my room is clocked out and them saying I owed again.  If it weren't for my wife keeping reciepts of our payment they would have made me pay extra.  We had to argue with them every week about this.  Also this hotel is right up by I-10 and is poorly built.  You here freeway traffic all hours of the day and night.  Just as if you were standing outside by the freeway.  I would not recommend this hotel to anyone!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1827,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1859,3828 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>62</v>
+      </c>
+      <c r="X4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" t="s">
+        <v>112</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>113</v>
+      </c>
+      <c r="X9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" t="s">
+        <v>112</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>113</v>
+      </c>
+      <c r="X10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>126</v>
+      </c>
+      <c r="O11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>127</v>
+      </c>
+      <c r="X11" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" t="s">
+        <v>93</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>135</v>
+      </c>
+      <c r="X12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13" t="s">
+        <v>142</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>135</v>
+      </c>
+      <c r="X13" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" t="s">
+        <v>149</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>150</v>
+      </c>
+      <c r="O14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>151</v>
+      </c>
+      <c r="X14" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" t="s">
+        <v>158</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>150</v>
+      </c>
+      <c r="O15" t="s">
+        <v>93</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>151</v>
+      </c>
+      <c r="X15" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>165</v>
+      </c>
+      <c r="O16" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>166</v>
+      </c>
+      <c r="X16" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>175</v>
+      </c>
+      <c r="X17" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18" t="s">
+        <v>181</v>
+      </c>
+      <c r="L18" t="s">
+        <v>182</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>183</v>
+      </c>
+      <c r="O18" t="s">
+        <v>93</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>185</v>
+      </c>
+      <c r="J19" t="s">
+        <v>186</v>
+      </c>
+      <c r="K19" t="s">
+        <v>187</v>
+      </c>
+      <c r="L19" t="s">
+        <v>188</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>189</v>
+      </c>
+      <c r="O19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>190</v>
+      </c>
+      <c r="X19" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>194</v>
+      </c>
+      <c r="J20" t="s">
+        <v>195</v>
+      </c>
+      <c r="K20" t="s">
+        <v>196</v>
+      </c>
+      <c r="L20" t="s">
+        <v>197</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>198</v>
+      </c>
+      <c r="O20" t="s">
+        <v>93</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>199</v>
+      </c>
+      <c r="X20" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>203</v>
+      </c>
+      <c r="J21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" t="s">
+        <v>206</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>198</v>
+      </c>
+      <c r="O21" t="s">
+        <v>93</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>207</v>
+      </c>
+      <c r="X21" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" t="s">
+        <v>212</v>
+      </c>
+      <c r="L22" t="s">
+        <v>213</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>198</v>
+      </c>
+      <c r="O22" t="s">
+        <v>93</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>207</v>
+      </c>
+      <c r="X22" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>216</v>
+      </c>
+      <c r="J23" t="s">
+        <v>217</v>
+      </c>
+      <c r="K23" t="s">
+        <v>218</v>
+      </c>
+      <c r="L23" t="s">
+        <v>219</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>198</v>
+      </c>
+      <c r="O23" t="s">
+        <v>93</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>220</v>
+      </c>
+      <c r="X23" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>224</v>
+      </c>
+      <c r="J24" t="s">
+        <v>217</v>
+      </c>
+      <c r="K24" t="s">
+        <v>225</v>
+      </c>
+      <c r="L24" t="s">
+        <v>226</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>198</v>
+      </c>
+      <c r="O24" t="s">
+        <v>93</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>220</v>
+      </c>
+      <c r="X24" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>228</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>229</v>
+      </c>
+      <c r="J25" t="s">
+        <v>230</v>
+      </c>
+      <c r="K25" t="s">
+        <v>231</v>
+      </c>
+      <c r="L25" t="s">
+        <v>232</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>189</v>
+      </c>
+      <c r="O25" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>220</v>
+      </c>
+      <c r="X25" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>235</v>
+      </c>
+      <c r="J26" t="s">
+        <v>236</v>
+      </c>
+      <c r="K26" t="s">
+        <v>237</v>
+      </c>
+      <c r="L26" t="s">
+        <v>238</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>189</v>
+      </c>
+      <c r="O26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>220</v>
+      </c>
+      <c r="X26" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>240</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>241</v>
+      </c>
+      <c r="J27" t="s">
+        <v>236</v>
+      </c>
+      <c r="K27" t="s">
+        <v>242</v>
+      </c>
+      <c r="L27" t="s">
+        <v>243</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>189</v>
+      </c>
+      <c r="O27" t="s">
+        <v>93</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>220</v>
+      </c>
+      <c r="X27" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>245</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>246</v>
+      </c>
+      <c r="J28" t="s">
+        <v>247</v>
+      </c>
+      <c r="K28" t="s">
+        <v>248</v>
+      </c>
+      <c r="L28" t="s">
+        <v>249</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>189</v>
+      </c>
+      <c r="O28" t="s">
+        <v>93</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>220</v>
+      </c>
+      <c r="X28" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>251</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>252</v>
+      </c>
+      <c r="J29" t="s">
+        <v>253</v>
+      </c>
+      <c r="K29" t="s">
+        <v>205</v>
+      </c>
+      <c r="L29" t="s">
+        <v>254</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>189</v>
+      </c>
+      <c r="O29" t="s">
+        <v>93</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>255</v>
+      </c>
+      <c r="X29" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>258</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>259</v>
+      </c>
+      <c r="J30" t="s">
+        <v>260</v>
+      </c>
+      <c r="K30" t="s">
+        <v>261</v>
+      </c>
+      <c r="L30" t="s">
+        <v>262</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>263</v>
+      </c>
+      <c r="O30" t="s">
+        <v>93</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>220</v>
+      </c>
+      <c r="X30" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>265</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J31" t="s">
+        <v>267</v>
+      </c>
+      <c r="K31" t="s">
+        <v>268</v>
+      </c>
+      <c r="L31" t="s">
+        <v>269</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>263</v>
+      </c>
+      <c r="O31" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>220</v>
+      </c>
+      <c r="X31" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>271</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>272</v>
+      </c>
+      <c r="J32" t="s">
+        <v>273</v>
+      </c>
+      <c r="K32" t="s">
+        <v>274</v>
+      </c>
+      <c r="L32" t="s">
+        <v>275</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>276</v>
+      </c>
+      <c r="O32" t="s">
+        <v>112</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>220</v>
+      </c>
+      <c r="X32" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>278</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>279</v>
+      </c>
+      <c r="J33" t="s">
+        <v>280</v>
+      </c>
+      <c r="K33" t="s">
+        <v>281</v>
+      </c>
+      <c r="L33" t="s">
+        <v>282</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>263</v>
+      </c>
+      <c r="O33" t="s">
+        <v>93</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>220</v>
+      </c>
+      <c r="X33" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>284</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>285</v>
+      </c>
+      <c r="J34" t="s">
+        <v>280</v>
+      </c>
+      <c r="K34" t="s">
+        <v>286</v>
+      </c>
+      <c r="L34" t="s">
+        <v>287</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>263</v>
+      </c>
+      <c r="O34" t="s">
+        <v>93</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>220</v>
+      </c>
+      <c r="X34" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>289</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>290</v>
+      </c>
+      <c r="J35" t="s">
+        <v>291</v>
+      </c>
+      <c r="K35" t="s">
+        <v>292</v>
+      </c>
+      <c r="L35" t="s">
+        <v>293</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>294</v>
+      </c>
+      <c r="O35" t="s">
+        <v>93</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>295</v>
+      </c>
+      <c r="X35" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>299</v>
+      </c>
+      <c r="J36" t="s">
+        <v>300</v>
+      </c>
+      <c r="K36" t="s">
+        <v>301</v>
+      </c>
+      <c r="L36" t="s">
+        <v>302</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>303</v>
+      </c>
+      <c r="O36" t="s">
+        <v>61</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>304</v>
+      </c>
+      <c r="X36" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>307</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>308</v>
+      </c>
+      <c r="J37" t="s">
+        <v>309</v>
+      </c>
+      <c r="K37" t="s">
+        <v>310</v>
+      </c>
+      <c r="L37" t="s">
+        <v>311</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>312</v>
+      </c>
+      <c r="O37" t="s">
+        <v>112</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>304</v>
+      </c>
+      <c r="X37" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>314</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>315</v>
+      </c>
+      <c r="J38" t="s">
+        <v>316</v>
+      </c>
+      <c r="K38" t="s">
+        <v>317</v>
+      </c>
+      <c r="L38" t="s">
+        <v>318</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>276</v>
+      </c>
+      <c r="O38" t="s">
+        <v>93</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>319</v>
+      </c>
+      <c r="X38" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>322</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>323</v>
+      </c>
+      <c r="J39" t="s">
+        <v>324</v>
+      </c>
+      <c r="K39" t="s">
+        <v>325</v>
+      </c>
+      <c r="L39" t="s">
+        <v>326</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>327</v>
+      </c>
+      <c r="O39" t="s">
+        <v>93</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>328</v>
+      </c>
+      <c r="X39" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>331</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>332</v>
+      </c>
+      <c r="J40" t="s">
+        <v>333</v>
+      </c>
+      <c r="K40" t="s">
+        <v>334</v>
+      </c>
+      <c r="L40" t="s">
+        <v>335</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>336</v>
+      </c>
+      <c r="O40" t="s">
+        <v>93</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>328</v>
+      </c>
+      <c r="X40" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>338</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>339</v>
+      </c>
+      <c r="J41" t="s">
+        <v>340</v>
+      </c>
+      <c r="K41" t="s">
+        <v>341</v>
+      </c>
+      <c r="L41" t="s">
+        <v>342</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>343</v>
+      </c>
+      <c r="O41" t="s">
+        <v>93</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>344</v>
+      </c>
+      <c r="X41" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>347</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>348</v>
+      </c>
+      <c r="J42" t="s">
+        <v>349</v>
+      </c>
+      <c r="K42" t="s">
+        <v>350</v>
+      </c>
+      <c r="L42" t="s">
+        <v>351</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>343</v>
+      </c>
+      <c r="O42" t="s">
+        <v>93</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>344</v>
+      </c>
+      <c r="X42" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>353</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>354</v>
+      </c>
+      <c r="J43" t="s">
+        <v>355</v>
+      </c>
+      <c r="K43" t="s">
+        <v>356</v>
+      </c>
+      <c r="L43" t="s">
+        <v>357</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>343</v>
+      </c>
+      <c r="O43" t="s">
+        <v>93</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>358</v>
+      </c>
+      <c r="X43" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>361</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>362</v>
+      </c>
+      <c r="J44" t="s">
+        <v>363</v>
+      </c>
+      <c r="K44" t="s">
+        <v>364</v>
+      </c>
+      <c r="L44" t="s">
+        <v>365</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>358</v>
+      </c>
+      <c r="X44" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>367</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>368</v>
+      </c>
+      <c r="J45" t="s">
+        <v>369</v>
+      </c>
+      <c r="K45" t="s">
+        <v>370</v>
+      </c>
+      <c r="L45" t="s">
+        <v>371</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>372</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>373</v>
+      </c>
+      <c r="J46" t="s">
+        <v>374</v>
+      </c>
+      <c r="K46" t="s">
+        <v>375</v>
+      </c>
+      <c r="L46" t="s">
+        <v>376</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>377</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>378</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>379</v>
+      </c>
+      <c r="J47" t="s">
+        <v>380</v>
+      </c>
+      <c r="K47" t="s">
+        <v>381</v>
+      </c>
+      <c r="L47" t="s">
+        <v>382</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>383</v>
+      </c>
+      <c r="O47" t="s">
+        <v>93</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>384</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>385</v>
+      </c>
+      <c r="J48" t="s">
+        <v>386</v>
+      </c>
+      <c r="K48" t="s">
+        <v>387</v>
+      </c>
+      <c r="L48" t="s">
+        <v>388</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>383</v>
+      </c>
+      <c r="O48" t="s">
+        <v>93</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>390</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>391</v>
+      </c>
+      <c r="J49" t="s">
+        <v>392</v>
+      </c>
+      <c r="K49" t="s">
+        <v>393</v>
+      </c>
+      <c r="L49" t="s">
+        <v>394</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>383</v>
+      </c>
+      <c r="O49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>395</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>396</v>
+      </c>
+      <c r="J50" t="s">
+        <v>397</v>
+      </c>
+      <c r="K50" t="s">
+        <v>398</v>
+      </c>
+      <c r="L50" t="s">
+        <v>399</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>400</v>
+      </c>
+      <c r="O50" t="s">
+        <v>93</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>401</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>402</v>
+      </c>
+      <c r="J51" t="s">
+        <v>403</v>
+      </c>
+      <c r="K51" t="s">
+        <v>404</v>
+      </c>
+      <c r="L51" t="s">
+        <v>405</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>406</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>407</v>
+      </c>
+      <c r="J52" t="s">
+        <v>408</v>
+      </c>
+      <c r="K52" t="s">
+        <v>409</v>
+      </c>
+      <c r="L52" t="s">
+        <v>410</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>412</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>413</v>
+      </c>
+      <c r="J53" t="s">
+        <v>414</v>
+      </c>
+      <c r="K53" t="s">
+        <v>415</v>
+      </c>
+      <c r="L53" t="s">
+        <v>416</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>417</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>418</v>
+      </c>
+      <c r="J54" t="s">
+        <v>419</v>
+      </c>
+      <c r="K54" t="s">
+        <v>420</v>
+      </c>
+      <c r="L54" t="s">
+        <v>421</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>422</v>
+      </c>
+      <c r="O54" t="s">
+        <v>93</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>423</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>424</v>
+      </c>
+      <c r="J55" t="s">
+        <v>419</v>
+      </c>
+      <c r="K55" t="s">
+        <v>425</v>
+      </c>
+      <c r="L55" t="s">
+        <v>426</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>427</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>428</v>
+      </c>
+      <c r="J56" t="s">
+        <v>429</v>
+      </c>
+      <c r="K56" t="s">
+        <v>430</v>
+      </c>
+      <c r="L56" t="s">
+        <v>431</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>432</v>
+      </c>
+      <c r="O56" t="s">
+        <v>77</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>433</v>
+      </c>
+      <c r="X56" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>436</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>437</v>
+      </c>
+      <c r="J57" t="s">
+        <v>438</v>
+      </c>
+      <c r="K57" t="s">
+        <v>439</v>
+      </c>
+      <c r="L57" t="s">
+        <v>440</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>441</v>
+      </c>
+      <c r="O57" t="s">
+        <v>93</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>442</v>
+      </c>
+      <c r="X57" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>445</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>446</v>
+      </c>
+      <c r="J58" t="s">
+        <v>447</v>
+      </c>
+      <c r="K58" t="s">
+        <v>448</v>
+      </c>
+      <c r="L58" t="s">
+        <v>449</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>450</v>
+      </c>
+      <c r="O58" t="s">
+        <v>93</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>451</v>
+      </c>
+      <c r="X58" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>454</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>455</v>
+      </c>
+      <c r="J59" t="s">
+        <v>456</v>
+      </c>
+      <c r="K59" t="s">
+        <v>457</v>
+      </c>
+      <c r="L59" t="s">
+        <v>458</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>459</v>
+      </c>
+      <c r="O59" t="s">
+        <v>93</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>460</v>
+      </c>
+      <c r="X59" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>463</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>464</v>
+      </c>
+      <c r="J60" t="s">
+        <v>465</v>
+      </c>
+      <c r="K60" t="s">
+        <v>466</v>
+      </c>
+      <c r="L60" t="s">
+        <v>467</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>468</v>
+      </c>
+      <c r="O60" t="s">
+        <v>93</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_676.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_676.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="715">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,66 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r593540887-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>55456</t>
+  </si>
+  <si>
+    <t>1383472</t>
+  </si>
+  <si>
+    <t>593540887</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>Great place and the price is right</t>
+  </si>
+  <si>
+    <t>We was on a last minute trip to Baytown and we had to find a place to stay. The Woodspring was close to where my husband had to be (he works for Buc-ee's) and the price was great. So, we decided to try it out. What a great idea. We were there for a week and the kitchen made it so we did not have to go out and eat every night. The staff was friendly and the manager (I think her name was Cathy or Cindy) took good care of us. She even gave us a paper with the local restaurants on it. The rooms were very clean and I love the neat crinkly sheet on the beds.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Julia R, Guest Relations at WoodSpring Suites Houston Baytown, responded to this reviewResponded July 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2018</t>
+  </si>
+  <si>
+    <t>We was on a last minute trip to Baytown and we had to find a place to stay. The Woodspring was close to where my husband had to be (he works for Buc-ee's) and the price was great. So, we decided to try it out. What a great idea. We were there for a week and the kitchen made it so we did not have to go out and eat every night. The staff was friendly and the manager (I think her name was Cathy or Cindy) took good care of us. She even gave us a paper with the local restaurants on it. The rooms were very clean and I love the neat crinkly sheet on the beds.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r593495977-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>593495977</t>
+  </si>
+  <si>
+    <t>Like coming home every year</t>
+  </si>
+  <si>
+    <t>Another great stay, great staff, nice, clean and quiet.  It's an extended stay so it comes with a kitchen so we don't have to eat out the whole time, plus we got a full size refrigerator to put groceries in.  Nice location!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Another great stay, great staff, nice, clean and quiet.  It's an extended stay so it comes with a kitchen so we don't have to eat out the whole time, plus we got a full size refrigerator to put groceries in.  Nice location!!!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r593300196-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
-    <t>55456</t>
-  </si>
-  <si>
-    <t>1383472</t>
-  </si>
-  <si>
     <t>593300196</t>
   </si>
   <si>
@@ -171,9 +219,6 @@
     <t>Had a wonderful experience.It was fantastic. I really enjoyed my stay and I loved the housekeeper named Jacky,she was so nice and polite.She made me feel so welcomed.I plan on coming back soon before school starts with my kids and I hope they enjoy it as much I did.MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
@@ -201,15 +246,6 @@
     <t>A great place to stay very clean and quite, loved the full size kitchen the staff was very friendly and Debra was so friendly definitely recommend you stay here they go out of their way to make three guests feel at homeMoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Julia R, Guest Relations at WoodSpring Suites Houston Baytown, responded to this reviewResponded 5 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 5 weeks ago</t>
-  </si>
-  <si>
     <t>A great place to stay very clean and quite, loved the full size kitchen the staff was very friendly and Debra was so friendly definitely recommend you stay here they go out of their way to make three guests feel at homeMore</t>
   </si>
   <si>
@@ -229,6 +265,57 @@
   </si>
   <si>
     <t>I stayed a couple of weeks and everyone was very helpful and friendly rooms were very clean and staff was very friendly Jennifer went out of her way to make sure we were comfortable loved how safe the building is and relaxed the atmosphereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r575889346-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>575889346</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t>So friendly, clean, and professional</t>
+  </si>
+  <si>
+    <t>My family stayed for a few days and upon first entry, rooms were clean, they smelled good, and the staff was friendly. Cindy and Gary were kind and always had smiles on their faces. It was a pleasure to be able to stay somewhere with family and feel safe and comfortable.Definitely worth the price!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>WoodSpring S, General Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded April 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2018</t>
+  </si>
+  <si>
+    <t>My family stayed for a few days and upon first entry, rooms were clean, they smelled good, and the staff was friendly. Cindy and Gary were kind and always had smiles on their faces. It was a pleasure to be able to stay somewhere with family and feel safe and comfortable.Definitely worth the price!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r573448732-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>573448732</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>Amazing Staff, and super Friendly</t>
+  </si>
+  <si>
+    <t>I have been staying here for a week and the rooms are super clean, everyone is super nice and staff is helpful and courteous. Domingo is super helpful and on top of her game. I recommend staying here. MoreShow less</t>
+  </si>
+  <si>
+    <t>WoodSpring S, Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2018</t>
+  </si>
+  <si>
+    <t>I have been staying here for a week and the rooms are super clean, everyone is super nice and staff is helpful and courteous. Domingo is super helpful and on top of her game. I recommend staying here. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r571551194-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
@@ -305,9 +392,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>WoodSpring S, General Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded January 8, 2018</t>
   </si>
   <si>
@@ -317,6 +401,54 @@
     <t>Great staff, quiet, clean, safe and comfortable. Love the full size refrigerators, the large microwaves.  This is great for long stays.  It's like a mini apartment with no bills, laundry machines in the building and everything near by.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r526852178-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>526852178</t>
+  </si>
+  <si>
+    <t>09/23/2017</t>
+  </si>
+  <si>
+    <t>Hurricane Harvey/FEMA</t>
+  </si>
+  <si>
+    <t>We checked in on 9/8/17, after the hurricane. FEMA was paying for our extended stay thru 9/25/17 when we were to resubmit. On 9/20 my husband was sent to Austin to work for a few days, when we returned on 9/23 they had resold the room to another guest. We did not check out. They did not call my cell phone to inquire. We entered the room to find that the bed was being slept in while we were gone. When I asked the front desk she said they checked the fridge for food. When they found none they decided that we had checked out. My question is, did they charge FEMA through 9/25? Why would they randomly enter a guests paid room? They don't clean the rooms, they don't change the sheets, they don't have a turn down service. What made it right to enter a room that was being paid for and decide that I no longer needed it?MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>We checked in on 9/8/17, after the hurricane. FEMA was paying for our extended stay thru 9/25/17 when we were to resubmit. On 9/20 my husband was sent to Austin to work for a few days, when we returned on 9/23 they had resold the room to another guest. We did not check out. They did not call my cell phone to inquire. We entered the room to find that the bed was being slept in while we were gone. When I asked the front desk she said they checked the fridge for food. When they found none they decided that we had checked out. My question is, did they charge FEMA through 9/25? Why would they randomly enter a guests paid room? They don't clean the rooms, they don't change the sheets, they don't have a turn down service. What made it right to enter a room that was being paid for and decide that I no longer needed it?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r511339963-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>511339963</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>Best extended stay EVER!</t>
+  </si>
+  <si>
+    <t>We've had the best experience we've ever had in an extended stay hotel. It is CLEAN &amp; stays that way, it smells really good all the time &amp; the staff ROCKS. Friendly, helpful &amp; professional. Clean laundry room. Full size refrigerator, a 2 burner cooktop &amp; a microwave. Close to grocery stores, probably 20 restaurants &amp; any type of shopping you'd need to do. Above all, clean &amp; welcoming! MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>We've had the best experience we've ever had in an extended stay hotel. It is CLEAN &amp; stays that way, it smells really good all the time &amp; the staff ROCKS. Friendly, helpful &amp; professional. Clean laundry room. Full size refrigerator, a 2 burner cooktop &amp; a microwave. Close to grocery stores, probably 20 restaurants &amp; any type of shopping you'd need to do. Above all, clean &amp; welcoming! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r511105596-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -332,9 +464,6 @@
     <t>I've been in Baytown working and the first hotel I stayed in was a big mistake.  then I was blessed to find woodsprings in Baytown.. the Hotel cleaning woman are off the chain great.  the young man at the desk Chris was so patience and understanding. Ms Cindy the manager was very kind and organized.She we good at tracking funds and that's a win win.Even the serviceman was on the spot helpful. I would only hope the corporate office allows them to give a few amenities to customers of 4 months or more. I will happily return and recommend this hotel in the future. with a the hotels in the area the staff at woodsprings made the choice to stay here a good one. The special care and cleanliness Ms Cindy made sure no bugs or any form of liter would be allowed that's what matters so much to me, especially with a huge clientele of hard working men. Being a woman and feeling safe here was a major plus.MoreShow less</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded September 12, 2017</t>
   </si>
   <si>
@@ -389,6 +518,54 @@
     <t>I had a very delightful experience with the hotel accommodations. Very helpful staff . and one of the best managers I have ever run across Cyndie. She went the extra mile. She is very knowledgeable about the surroundings, and was able to direct me to a good repair shop for my car. My experience was simply the best and many thanks to the managerMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r508661517-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>508661517</t>
+  </si>
+  <si>
+    <t>Pipe fitter / Boilermaker</t>
+  </si>
+  <si>
+    <t>I get called to work in the Baytown area frequently for extended periods of time. I make this Hotel my "home away from home".  It is in a great location near to my job, restaurants and necessary shopping. The rooms are clean and are equipped with a kitchenette which also includes a full size refrigerator. The staff is always friendly and accommodating. One housekeeper in particular (Jackie) comes to mind because of her friendly smile and servant's heart. I would recommend this hotel for extended stays or short stays. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>I get called to work in the Baytown area frequently for extended periods of time. I make this Hotel my "home away from home".  It is in a great location near to my job, restaurants and necessary shopping. The rooms are clean and are equipped with a kitchenette which also includes a full size refrigerator. The staff is always friendly and accommodating. One housekeeper in particular (Jackie) comes to mind because of her friendly smile and servant's heart. I would recommend this hotel for extended stays or short stays. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r497424222-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>497424222</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>Great job</t>
+  </si>
+  <si>
+    <t>Stayed here over 2 months staff is very friendly. Any time of the day or night I need assistance there's someone on call to help. Rooms are kept clean. I've recommended family stay here when they are in town and they also love it as well and will continue to come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here over 2 months staff is very friendly. Any time of the day or night I need assistance there's someone on call to help. Rooms are kept clean. I've recommended family stay here when they are in town and they also love it as well and will continue to come back.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r487753257-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -461,6 +638,39 @@
     <t>Excellent again, friendly staff, very clean room, simple but all the basics are covered.  Noticed free Wifi now and that is great!!!  The place is even better than before, quieter, friendlier and the staff seem to know what you need before you ask.  Only thing I would recommend is being able to exchange linen free everyday.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r478669496-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>478669496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working </t>
+  </si>
+  <si>
+    <t>This has been  a  great  hotel  and the staff are awesome  keep up the good work. Very neat and simple, the laundry room on site is convenient and helpful. The halls are always clean and friendly desk staffMoreShow less</t>
+  </si>
+  <si>
+    <t>This has been  a  great  hotel  and the staff are awesome  keep up the good work. Very neat and simple, the laundry room on site is convenient and helpful. The halls are always clean and friendly desk staffMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r476937433-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>476937433</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only the Best </t>
+  </si>
+  <si>
+    <t>The people who work here is very nice and courteous. Never had any problems what so ever. I will always come back here and stay when in town. 5 star all the way!!! Rooms were clean and fresh. It was in a great location, lots of restaurants and other places nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>The people who work here is very nice and courteous. Never had any problems what so ever. I will always come back here and stay when in town. 5 star all the way!!! Rooms were clean and fresh. It was in a great location, lots of restaurants and other places nearby.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r469409636-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -533,6 +743,54 @@
     <t>Really enjoyed my stay, even though the next day the prices jumped to 75.00 a night. Then I had to relocate because it's not worth that. When I first checked in it was 52.00 a night that was the day of the Super Bowl. Day after that the price jumped up 23.00 after that, didn't not understand that at all.The location is great you have access to the mall and so many major food restaurants, which are all in walking distance.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r446574788-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>446574788</t>
+  </si>
+  <si>
+    <t>12/25/2016</t>
+  </si>
+  <si>
+    <t>Extended Stay</t>
+  </si>
+  <si>
+    <t>Our house was determined to have termites. I have had cancer and I broke my leg. We moved to Value Place when I was just missed from rehab. The staff has been superb in providing for our needs. We have been here two and a half months and will probably be here another 2 weeks before house is finished. I would highly recommend the Value Place for any Extended Stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Our house was determined to have termites. I have had cancer and I broke my leg. We moved to Value Place when I was just missed from rehab. The staff has been superb in providing for our needs. We have been here two and a half months and will probably be here another 2 weeks before house is finished. I would highly recommend the Value Place for any Extended Stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r430197574-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>430197574</t>
+  </si>
+  <si>
+    <t>10/20/2016</t>
+  </si>
+  <si>
+    <t>The lady at the front desk,that always outside smoking!</t>
+  </si>
+  <si>
+    <t>I will never return she has no customer service and she should  be laid off she very rude and she must have a problem with her eyes because every time you ask a question she kept rolling her eyes, and she loves to argue with you.but at the end you lost a paying customer that's been here more than a month.y'all really need to look in the hiring people that treat their customers with respect!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded November 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2016</t>
+  </si>
+  <si>
+    <t>I will never return she has no customer service and she should  be laid off she very rude and she must have a problem with her eyes because every time you ask a question she kept rolling her eyes, and she loves to argue with you.but at the end you lost a paying customer that's been here more than a month.y'all really need to look in the hiring people that treat their customers with respect!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r424537108-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -548,15 +806,6 @@
     <t>Easy checking in.  Very helpful front desk. Clean room. Very cozy. Up to date inside. Easy access in and out onto the freeway. Parking is plentiful. Onsite laundry room as well. Decently priced for the area. Location is what attracted me. Im here for work and it is close to my job.  Stores and whatnotMoreShow less</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded November 30, 2016</t>
-  </si>
-  <si>
-    <t>Responded November 30, 2016</t>
-  </si>
-  <si>
     <t>Easy checking in.  Very helpful front desk. Clean room. Very cozy. Up to date inside. Easy access in and out onto the freeway. Parking is plentiful. Onsite laundry room as well. Decently priced for the area. Location is what attracted me. Im here for work and it is close to my job.  Stores and whatnotMore</t>
   </si>
   <si>
@@ -605,6 +854,51 @@
     <t>I'd like to know how in the world somebody could experience an excellent stay at this hotel. You'll see I have many amazing reviews &amp; very few poor reviews so when I do it means something. Upon check-in the girl at check-in was rude, there was a dead roach in the bathroom, the room was fairly clean, the refrigerator smelt,  the bed was soooooo very uncomfortable, it's right off the interstate so it was very loud, while we were there what I am sure is sewage backed up into the tub call front desk again very uncaring. I could go on and on but no point in it. This may be a necessity for people that are staying long term but would never recommend it for anyone. The only reason we stayed here is the typical hotel we stayed at was fully booked and this was close to that location we usually stay. What a mistake on our part we ended up checking out and they would not issue a refund we bit the bullet and at a cost lost left anyway with the room paid for an additional 2 days yes it was that bad!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r413998219-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>413998219</t>
+  </si>
+  <si>
+    <t>09/02/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winston review </t>
+  </si>
+  <si>
+    <t>Front desk service is excellent. She provided detail instructions. The property provides a cart to bring luggage to room. The room is very clean and spacious.  The efficiency kitchen is very handy for a family week if kids. My husband and I will make plans to return. MoreShow less</t>
+  </si>
+  <si>
+    <t>Front desk service is excellent. She provided detail instructions. The property provides a cart to bring luggage to room. The room is very clean and spacious.  The efficiency kitchen is very handy for a family week if kids. My husband and I will make plans to return. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r405965760-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>405965760</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>New hotel with elevator so you don't have to deal with stairs, perfect kitchen area for cooking &amp; big fridge , great for anyone working at one of the many refineries in the area &amp; good weekly rates . Friendly staff &amp; close to all shopping &amp; i10 ************************************************MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded September 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2016</t>
+  </si>
+  <si>
+    <t>New hotel with elevator so you don't have to deal with stairs, perfect kitchen area for cooking &amp; big fridge , great for anyone working at one of the many refineries in the area &amp; good weekly rates . Friendly staff &amp; close to all shopping &amp; i10 ************************************************More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r404232419-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -620,9 +914,6 @@
     <t>First off the value place has gone way up on their weekly rate in the past 3 years, inflation i guess. That aside, the rooms are relatively updated. Our first room had fleas pretty bad, but the manager was super cool about it, and got us into a new room in like 5 minutes. All in all, pretty good hotel for refinery workers.Room 222MoreShow less</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
     <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded August 31, 2016</t>
   </si>
   <si>
@@ -647,12 +938,6 @@
     <t>The room is clean and well kept. Very nice and comfortable. The rates are reasonable. They have security cameras and an elevator. There is a large mall right beside it. There are lots of different types of stores and restaurants within 2 miles. There are automobile services nearby. MoreShow less</t>
   </si>
   <si>
-    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded September 2, 2016</t>
-  </si>
-  <si>
-    <t>Responded September 2, 2016</t>
-  </si>
-  <si>
     <t>The room is clean and well kept. Very nice and comfortable. The rates are reasonable. They have security cameras and an elevator. There is a large mall right beside it. There are lots of different types of stores and restaurants within 2 miles. There are automobile services nearby. More</t>
   </si>
   <si>
@@ -671,15 +956,48 @@
     <t>Awesome service, thanks to Jane for checking us in . it also very convenient to near by stores an eatery. Rooms are a A+ As soon as we arrived we were greeted and checked in fast. Gave us a special of the day. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r402159407-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>402159407</t>
+  </si>
+  <si>
+    <t>08/06/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly staff, great place </t>
+  </si>
+  <si>
+    <t>The rooms are nice and spacious, easily one of the better hotels I've been in this year. Jane, The woman at the front desk was very helpful with getting us into our room. Seems like a great place to stay, I will come back again if ever in town! MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms are nice and spacious, easily one of the better hotels I've been in this year. Jane, The woman at the front desk was very helpful with getting us into our room. Seems like a great place to stay, I will come back again if ever in town! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r401505233-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>401505233</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>A great stay</t>
+  </si>
+  <si>
+    <t>The staff was extremely courteous and accommodating to our needs while staying such a long extended period of time. They Never had a bad attitude and was always willing to be helpful. It is centrally located near Baytown main roads of local attractions and conveniently right next to the San jacento mall.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff was extremely courteous and accommodating to our needs while staying such a long extended period of time. They Never had a bad attitude and was always willing to be helpful. It is centrally located near Baytown main roads of local attractions and conveniently right next to the San jacento mall.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r401494375-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
     <t>401494375</t>
   </si>
   <si>
-    <t>08/04/2016</t>
-  </si>
-  <si>
     <t>Home away from home</t>
   </si>
   <si>
@@ -728,6 +1046,36 @@
     <t>The rooms are very clean and the staff are so very nice friendly. They are located close to lots of major restaurants and a mall. The rooms have plenty of space including a kitchenette with a stove top and a full sized refrigerator! I wish these were apartments!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r398472002-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>398472002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Satisfied </t>
+  </si>
+  <si>
+    <t>We booked a room for 10 days while waiting to close on new home. We had to book an additional 7 days due to home not being ready and the staff made that a very easy transaction. Rooms are clean and spacious for a family of four. Convenient location close to I-10. Staff was very friendly and helpful. Would definitely recommend. MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked a room for 10 days while waiting to close on new home. We had to book an additional 7 days due to home not being ready and the staff made that a very easy transaction. Rooms are clean and spacious for a family of four. Convenient location close to I-10. Staff was very friendly and helpful. Would definitely recommend. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r398445402-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>398445402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great stay </t>
+  </si>
+  <si>
+    <t>Great room for the price you pay. The room was very clean. The staff was very nice and respectful. The shower had great water pressure. Convenient location close to I-10 but not too noisy. The only thing that could make it a better stay would be if they had a pool. MoreShow less</t>
+  </si>
+  <si>
+    <t>Great room for the price you pay. The room was very clean. The staff was very nice and respectful. The shower had great water pressure. Convenient location close to I-10 but not too noisy. The only thing that could make it a better stay would be if they had a pool. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r395673082-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -779,15 +1127,51 @@
     <t>Very clean place. Friendly staff. Close to a lot of restaurants. The people there are working men. Our room has a kitchen a fridge an microwave. Very useful. Also,it's non smoking so if you staying 3rd or 4th floor be prepare to walk down a lot or take elevator. No pool an no coffee pot. So if you drink coffee bring your own. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r393341564-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>393341564</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>long stay</t>
+  </si>
+  <si>
+    <t>Friendly staff, rooms are cozy, noise is not bad in hotel but the building being built next door is a little aggrevating with the hammering going on.  Communication could be better as far as the staff goes.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Friendly staff, rooms are cozy, noise is not bad in hotel but the building being built next door is a little aggrevating with the hammering going on.  Communication could be better as far as the staff goes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r392685714-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>392685714</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Awesome long stay!</t>
+  </si>
+  <si>
+    <t>Extremely awesome!!! Jane was awesome and extremely helpful! Great price and awesome rooms! Very clean updated rooms. Everything you need on site! Can't think of any flaws. The staff is nice and the site is very secure. The suites are more then expected for the price!MoreShow less</t>
+  </si>
+  <si>
+    <t>Extremely awesome!!! Jane was awesome and extremely helpful! Great price and awesome rooms! Very clean updated rooms. Everything you need on site! Can't think of any flaws. The staff is nice and the site is very secure. The suites are more then expected for the price!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r392684361-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
     <t>392684361</t>
   </si>
   <si>
-    <t>07/14/2016</t>
-  </si>
-  <si>
     <t>Mrs. Jane at the front desk was amazing .. she was extremely helpful.. definitely the place to stay if your in baytown... the room was immaculate the full fridge and stove was definitely a big plus ... the laundry mat was extremely useful as well MoreShow less</t>
   </si>
   <si>
@@ -839,15 +1223,45 @@
     <t>This hotel was super clean. I am always skeptical about hotels and how much they care about how clean the floor is. My baby is constantly crawling. So, we stayed at this hotel in Baytown and it was as clean a hotel as I have ever seen. The people were great too! I stopped and asked directions from the front desk person... I think her name was Faith. And we found all the places we were going without trouble. We stopped by to check out and met the manager, Cynthia. Again, super nice. If we ever come back to this area we are staying at the Value PlaceMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r388487422-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>388487422</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traveling </t>
+  </si>
+  <si>
+    <t>The staff is so down to earth. Mrs.jane really helped me with quick and accurate guest service. I will stay again. Very clean and quite nice for just relaxation. And i like that i am right across the street from the mall.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff is so down to earth. Mrs.jane really helped me with quick and accurate guest service. I will stay again. Very clean and quite nice for just relaxation. And i like that i am right across the street from the mall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r388486019-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>388486019</t>
+  </si>
+  <si>
+    <t>Great Place to stay</t>
+  </si>
+  <si>
+    <t>We just relocated to Baytown and had to wait couple of weeks for our home and decided to stay at Value Place until then. Best decision ever!!! Rooms are nice and location is superb (next to highway and mall). Jane in the front desk was super friendly and went through all the places around the hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>We just relocated to Baytown and had to wait couple of weeks for our home and decided to stay at Value Place until then. Best decision ever!!! Rooms are nice and location is superb (next to highway and mall). Jane in the front desk was super friendly and went through all the places around the hotel. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r388396255-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
     <t>388396255</t>
   </si>
   <si>
-    <t>07/02/2016</t>
-  </si>
-  <si>
     <t>Very comfortable.  It is comfortable enough to be home</t>
   </si>
   <si>
@@ -893,6 +1307,45 @@
     <t>I was in a pinch and needs a hotel for a week. I found the Value Place because they had a great rate. I found thethe hotel to be oof the cleanest I have ever stayed in. The person at the front desk was so nice and even recommended some mexican food nearby. I think her name was faith. I will definitely stay again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r387455644-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>387455644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent place to stay! </t>
+  </si>
+  <si>
+    <t>The Value Place is an excellent place to stay! It is very clean, it's in a convenient location, &amp; the employees are absolutely amazing! They are quick to help with any problem &amp; very happy to do so! Regardless if your stay is business or personal, I would highly recommend staying here! MoreShow less</t>
+  </si>
+  <si>
+    <t>The Value Place is an excellent place to stay! It is very clean, it's in a convenient location, &amp; the employees are absolutely amazing! They are quick to help with any problem &amp; very happy to do so! Regardless if your stay is business or personal, I would highly recommend staying here! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r378766499-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>378766499</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>Very clean, quiet and friendly</t>
+  </si>
+  <si>
+    <t>Great place, quiet, rooms with kitchens were very clean and well done.  Staff was extremely friendly and helpful even for the smallest thing.  The surroundings and customers were friendly and family type.  The housekeeping only done once every two weeks but what a great job and Virginia was super sweet.  I did notice that they are more generous with all room items, like they left extra garbage bags under the used one, they even have a cork board with pins to hang things, cutting boards, kitchen drawers and cabinets, it all makes it much nicer.  There is a mall right next door and lots of restaurants around along with plenty of shopping areas.  We would definitely stay again or at other Value Places, it's much better than we thought and much much better than other extended stay chains we have stayed at.MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded June 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2016</t>
+  </si>
+  <si>
+    <t>Great place, quiet, rooms with kitchens were very clean and well done.  Staff was extremely friendly and helpful even for the smallest thing.  The surroundings and customers were friendly and family type.  The housekeeping only done once every two weeks but what a great job and Virginia was super sweet.  I did notice that they are more generous with all room items, like they left extra garbage bags under the used one, they even have a cork board with pins to hang things, cutting boards, kitchen drawers and cabinets, it all makes it much nicer.  There is a mall right next door and lots of restaurants around along with plenty of shopping areas.  We would definitely stay again or at other Value Places, it's much better than we thought and much much better than other extended stay chains we have stayed at.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r360508663-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -968,6 +1421,45 @@
     <t>I have been staying here in Baytown for about 4 months . Last  week Charles took over management and I can see changes. Very professional and stop and talk to me for a few here an there and I believe he's a  man of is word. Great hire for Value Place Hotels.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r352236870-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>352236870</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Excellent! Very much worth it!!</t>
+  </si>
+  <si>
+    <t>The staff couldn't have been any better!from the time I entered the lobby area to check in the the manager &amp; clerk were very accommodating.the room was spotless &amp; smelled Great.Everyone down to the maids greets you with a believable "Good morning" greetings. It's an all around comfortable Stay..Wish everywhere else I've been took pride in their work Ethic as these guys..MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff couldn't have been any better!from the time I entered the lobby area to check in the the manager &amp; clerk were very accommodating.the room was spotless &amp; smelled Great.Everyone down to the maids greets you with a believable "Good morning" greetings. It's an all around comfortable Stay..Wish everywhere else I've been took pride in their work Ethic as these guys..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r306027359-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>306027359</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>It's a dump, and there is no accountability on management's part</t>
+  </si>
+  <si>
+    <t>If you're looking for an extended stay place- where you pay extra for a "kitchen", go somewhere else. There are NO pots, pans, coffee-maker, utensils, plates, Wi-Fi- nothing. Everything has to be rented. If you do rent the Wi-Fi, you have to call into a system and the speed is so slow, it's not worth your $11 bucks. Even in the worst hotels in the US, they all come with a coffee maker.  If you need clean towels, it's extra. If you need the room cleaned, it's extra. The place is a dump. The "mattress" is an old worn out pad with no box-spring or platform, so you basically lay on springs. The room smelled like mildew, I was congested and coughed all week because of it, and when the fridge kicks on and off in the night, it is so loud it wakes you up. The room takes forever to cool down in Texas heat. The place was dirty, there are no standards to be met, management doesn't care about you or the place- all they want is your credit card and hard-earned money. After my 1st night there, I spoke with "Kelsey" and asked for the manager to call me back- never returned my call. Do yourself a favor, go somewhere else. I'm surprised I didn't get bitten by bedbugs. Did I say the place is a dump? I travel for work, and this is the absolute WORST...If you're looking for an extended stay place- where you pay extra for a "kitchen", go somewhere else. There are NO pots, pans, coffee-maker, utensils, plates, Wi-Fi- nothing. Everything has to be rented. If you do rent the Wi-Fi, you have to call into a system and the speed is so slow, it's not worth your $11 bucks. Even in the worst hotels in the US, they all come with a coffee maker.  If you need clean towels, it's extra. If you need the room cleaned, it's extra. The place is a dump. The "mattress" is an old worn out pad with no box-spring or platform, so you basically lay on springs. The room smelled like mildew, I was congested and coughed all week because of it, and when the fridge kicks on and off in the night, it is so loud it wakes you up. The room takes forever to cool down in Texas heat. The place was dirty, there are no standards to be met, management doesn't care about you or the place- all they want is your credit card and hard-earned money. After my 1st night there, I spoke with "Kelsey" and asked for the manager to call me back- never returned my call. Do yourself a favor, go somewhere else. I'm surprised I didn't get bitten by bedbugs. Did I say the place is a dump? I travel for work, and this is the absolute WORST place I've ever stayed in. They are only interested in 1 thing: your money.MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded September 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2015</t>
+  </si>
+  <si>
+    <t>If you're looking for an extended stay place- where you pay extra for a "kitchen", go somewhere else. There are NO pots, pans, coffee-maker, utensils, plates, Wi-Fi- nothing. Everything has to be rented. If you do rent the Wi-Fi, you have to call into a system and the speed is so slow, it's not worth your $11 bucks. Even in the worst hotels in the US, they all come with a coffee maker.  If you need clean towels, it's extra. If you need the room cleaned, it's extra. The place is a dump. The "mattress" is an old worn out pad with no box-spring or platform, so you basically lay on springs. The room smelled like mildew, I was congested and coughed all week because of it, and when the fridge kicks on and off in the night, it is so loud it wakes you up. The room takes forever to cool down in Texas heat. The place was dirty, there are no standards to be met, management doesn't care about you or the place- all they want is your credit card and hard-earned money. After my 1st night there, I spoke with "Kelsey" and asked for the manager to call me back- never returned my call. Do yourself a favor, go somewhere else. I'm surprised I didn't get bitten by bedbugs. Did I say the place is a dump? I travel for work, and this is the absolute WORST...If you're looking for an extended stay place- where you pay extra for a "kitchen", go somewhere else. There are NO pots, pans, coffee-maker, utensils, plates, Wi-Fi- nothing. Everything has to be rented. If you do rent the Wi-Fi, you have to call into a system and the speed is so slow, it's not worth your $11 bucks. Even in the worst hotels in the US, they all come with a coffee maker.  If you need clean towels, it's extra. If you need the room cleaned, it's extra. The place is a dump. The "mattress" is an old worn out pad with no box-spring or platform, so you basically lay on springs. The room smelled like mildew, I was congested and coughed all week because of it, and when the fridge kicks on and off in the night, it is so loud it wakes you up. The room takes forever to cool down in Texas heat. The place was dirty, there are no standards to be met, management doesn't care about you or the place- all they want is your credit card and hard-earned money. After my 1st night there, I spoke with "Kelsey" and asked for the manager to call me back- never returned my call. Do yourself a favor, go somewhere else. I'm surprised I didn't get bitten by bedbugs. Did I say the place is a dump? I travel for work, and this is the absolute WORST place I've ever stayed in. They are only interested in 1 thing: your money.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r300906584-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -1040,15 +1532,63 @@
     <t>My coworker &amp; I did not like being here. At first it was OK but later management changed and everything went down. Personnel were not very helpful and treated my coworkers rude. It was noisy &amp; not comfortable. Not enough soaps or bathroom necessities. We don't recommend, especially if you do not speak perfect English.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r248374342-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>248374342</t>
+  </si>
+  <si>
+    <t>01/08/2015</t>
+  </si>
+  <si>
+    <t>Wonderful placer</t>
+  </si>
+  <si>
+    <t>We stayed at the value place during the holidays,  the staff was outstanding,  they really made it feel like home.  We will be coming back. The room was very clean,  the housekeeper really did a great job and the manager always had a smile and a friendly attitudeMoreShow less</t>
+  </si>
+  <si>
+    <t>Sean A, Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded February 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at the value place during the holidays,  the staff was outstanding,  they really made it feel like home.  We will be coming back. The room was very clean,  the housekeeper really did a great job and the manager always had a smile and a friendly attitudeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r226140365-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>226140365</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>management/staff we're incredibly friendly!</t>
+  </si>
+  <si>
+    <t>Wow! To start let me just say for the price you pay you're easily getting the best deal in town! The rooms are spotlessly cleaned/very homey and comfortable. The manager Jermaine made my girlfriend and I feel as though we were guests not just in a hotel, but his very own home, that was a huge plus! It's not $20 dollars to do a load of laundry here either; $1 for washer and $1 for dryer. The rooms include a full size refrigerator and a double eye stove top which was great for my extended stay. Overall, I give 5 stars not only for the great value, but the incredibly friendly staff and meticulously cleaned rooms!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded December 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2014</t>
+  </si>
+  <si>
+    <t>Wow! To start let me just say for the price you pay you're easily getting the best deal in town! The rooms are spotlessly cleaned/very homey and comfortable. The manager Jermaine made my girlfriend and I feel as though we were guests not just in a hotel, but his very own home, that was a huge plus! It's not $20 dollars to do a load of laundry here either; $1 for washer and $1 for dryer. The rooms include a full size refrigerator and a double eye stove top which was great for my extended stay. Overall, I give 5 stars not only for the great value, but the incredibly friendly staff and meticulously cleaned rooms!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r226138893-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
     <t>226138893</t>
   </si>
   <si>
-    <t>09/01/2014</t>
-  </si>
-  <si>
     <t>Excellent Everything!!!</t>
   </si>
   <si>
@@ -1058,12 +1598,6 @@
     <t>August 2014</t>
   </si>
   <si>
-    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded December 9, 2014</t>
-  </si>
-  <si>
-    <t>Responded December 9, 2014</t>
-  </si>
-  <si>
     <t>My boyfriend and I have had nothing but an excellent experience with the Value Place! The hotel manager, Jermaine and all of the other staff as well have been nothing but friendly, helpful and completely professional! The rates are great, the rooms are well kept and clean, the property overall is a clean, respectful place. I would recommend this hotel to anyone looking for a clean, safe and reasonably priced place to stay for any period of time!More</t>
   </si>
   <si>
@@ -1109,6 +1643,45 @@
     <t>I had a very pleasant stay at this hotel. The staff was very attentive your room is for a very clean and the overall perception was a very pleasant one. I would recommend anyone staying out of town for more than a week to stop here for a clean friendly safe place to stayMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r218695224-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>218695224</t>
+  </si>
+  <si>
+    <t>07/31/2014</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>It is real clean. And the ones that work here are very nice and want to help u. I would come back and stay again. The price is very great. Love the kitchen they have. And the bathroom are big. The bed are soft I love that a lot. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>It is real clean. And the ones that work here are very nice and want to help u. I would come back and stay again. The price is very great. Love the kitchen they have. And the bathroom are big. The bed are soft I love that a lot. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r215524841-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>215524841</t>
+  </si>
+  <si>
+    <t>07/15/2014</t>
+  </si>
+  <si>
+    <t>NEVER stay at VALUE PLACE!</t>
+  </si>
+  <si>
+    <t>NEVER STAY AT VALUE PLACE!!! I called the hotel's number and reserved a room priced at $279, when I arrived they told me there were no rooms available for that price. They did have rooms for $408 though. I asked what about my reservation? I was told I had a room reserved for me at $279. I had to pay for the more expensive room....I drove 6 hours and was very tired, so I stayed. That was the biggest mistake of my life. It was terrible! The room looked clean until I took my shoes off. The kitchen and bathroom floors were disgusting! I took a wet paper towel and wiped one tile and the paper towel was BLACK!! They gave me this room with a love seat that was a sleeper. Well, the sleeper had NO sheets...they rent this room out to 3 guest, so how is the 3rd person going to sleep on it without sheets? They give 2 towels and 2 wash cloths. If you need more, you have to pay for them. If you bring your dirty sheets down to get clean ones, they charge you $7.00. You have to pay $29.99 for a coffee maker. They are suppose to come clean the room every 2 weeks, if you need them before then, well, you have to pay $25.00 for extra cleaning.. You have to pay $10.00 per week for internet. They tell you at the...NEVER STAY AT VALUE PLACE!!! I called the hotel's number and reserved a room priced at $279, when I arrived they told me there were no rooms available for that price. They did have rooms for $408 though. I asked what about my reservation? I was told I had a room reserved for me at $279. I had to pay for the more expensive room....I drove 6 hours and was very tired, so I stayed. That was the biggest mistake of my life. It was terrible! The room looked clean until I took my shoes off. The kitchen and bathroom floors were disgusting! I took a wet paper towel and wiped one tile and the paper towel was BLACK!! They gave me this room with a love seat that was a sleeper. Well, the sleeper had NO sheets...they rent this room out to 3 guest, so how is the 3rd person going to sleep on it without sheets? They give 2 towels and 2 wash cloths. If you need more, you have to pay for them. If you bring your dirty sheets down to get clean ones, they charge you $7.00. You have to pay $29.99 for a coffee maker. They are suppose to come clean the room every 2 weeks, if you need them before then, well, you have to pay $25.00 for extra cleaning.. You have to pay $10.00 per week for internet. They tell you at the front desk use your last name and room number to access the internet, but forget to tell you,  you have to call another number before you can access it. I spoke with several other people staying at this hotel and not one person had anything nice to say about their stay. I called and wrote the corporate office several times but got NO response from anyone. I will never again waste my money on Value Place and would urge everyone not to use them either. Value Place SUCKS!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>NEVER STAY AT VALUE PLACE!!! I called the hotel's number and reserved a room priced at $279, when I arrived they told me there were no rooms available for that price. They did have rooms for $408 though. I asked what about my reservation? I was told I had a room reserved for me at $279. I had to pay for the more expensive room....I drove 6 hours and was very tired, so I stayed. That was the biggest mistake of my life. It was terrible! The room looked clean until I took my shoes off. The kitchen and bathroom floors were disgusting! I took a wet paper towel and wiped one tile and the paper towel was BLACK!! They gave me this room with a love seat that was a sleeper. Well, the sleeper had NO sheets...they rent this room out to 3 guest, so how is the 3rd person going to sleep on it without sheets? They give 2 towels and 2 wash cloths. If you need more, you have to pay for them. If you bring your dirty sheets down to get clean ones, they charge you $7.00. You have to pay $29.99 for a coffee maker. They are suppose to come clean the room every 2 weeks, if you need them before then, well, you have to pay $25.00 for extra cleaning.. You have to pay $10.00 per week for internet. They tell you at the...NEVER STAY AT VALUE PLACE!!! I called the hotel's number and reserved a room priced at $279, when I arrived they told me there were no rooms available for that price. They did have rooms for $408 though. I asked what about my reservation? I was told I had a room reserved for me at $279. I had to pay for the more expensive room....I drove 6 hours and was very tired, so I stayed. That was the biggest mistake of my life. It was terrible! The room looked clean until I took my shoes off. The kitchen and bathroom floors were disgusting! I took a wet paper towel and wiped one tile and the paper towel was BLACK!! They gave me this room with a love seat that was a sleeper. Well, the sleeper had NO sheets...they rent this room out to 3 guest, so how is the 3rd person going to sleep on it without sheets? They give 2 towels and 2 wash cloths. If you need more, you have to pay for them. If you bring your dirty sheets down to get clean ones, they charge you $7.00. You have to pay $29.99 for a coffee maker. They are suppose to come clean the room every 2 weeks, if you need them before then, well, you have to pay $25.00 for extra cleaning.. You have to pay $10.00 per week for internet. They tell you at the front desk use your last name and room number to access the internet, but forget to tell you,  you have to call another number before you can access it. I spoke with several other people staying at this hotel and not one person had anything nice to say about their stay. I called and wrote the corporate office several times but got NO response from anyone. I will never again waste my money on Value Place and would urge everyone not to use them either. Value Place SUCKS!!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r213525544-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -1160,6 +1733,42 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r209736085-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>209736085</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>Not your typical vacation hotel but top-rate staff</t>
+  </si>
+  <si>
+    <t>While the hotel staff were friendly and professional, the overall feel to the place was scary. I did not realize that the hotel is under very tight security. The lobby is on lock down, does not have an ATM, no "business center" with internet access, no pool, and you are required to fill out a lengthy "contract/lease" agreement when you check in. What the hotel does offer is very clean rooms, also offers to sell you a coffee maker or dishes if you need them. The Value Place is very clean and comfortable and again an extremely top-notch staff. L. Thomas, Poughkeepsie NY</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r208014614-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>208014614</t>
+  </si>
+  <si>
+    <t>05/30/2014</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>I just completed one year of staying at the Value Place in Baytown, TX.  The Staff are very professional and were very sensitive to my problems or needs.  My Room was very clean and well kept.  The Maids did an exceptional job of cleaning my room thoroughly.  Security is top notch with cameras in the hallways and outside.  The outside is very well lit. I would say to anyone that if you are in need of an extended stay room, you can't beat Value Place.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r205803115-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -1175,9 +1784,6 @@
     <t>I recently stayed at Value Place with some of my other employees. It was very affordable and the rooms were extremely clean. A lot better than what I expected for the price. The manager and head over safety were extremely friendly and helpful. Our company is doing a lot of business in Houston. We will definitely be coming back!</t>
   </si>
   <si>
-    <t>May 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r205733818-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -1211,24 +1817,51 @@
     <t>Just want to say thank you to the value place team. You all make my stay incredible. From Joes smiling face and eagerness to help, Simon who dropped everything to replace my a/c the second I said something was wrong. Jermaine who got us in after the reservations department booked our stay incorrectly twice. Kim who makes sure the building and rooms are always clean and ready to accept the next guest. Thanks Guys.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r204342412-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>204342412</t>
+  </si>
+  <si>
+    <t>05/06/2014</t>
+  </si>
+  <si>
+    <t>Excellent Staff</t>
+  </si>
+  <si>
+    <t>Stayed here with my wife and kids while on business trip and found it to be very clean, the staff professional, the location from my job, retail stores, and the major attractions was great. Very affordable. The staff was very nice and definitely made you feel comfortable and as if you were really home, The GM Jermaine Banks was very friendly, helpful, and really cared to make our stay as comfortable as possible. My family and I definitely recommend to stay at this place.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r203735790-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>203735790</t>
+  </si>
+  <si>
+    <t>05/02/2014</t>
+  </si>
+  <si>
+    <t>Excellent service!</t>
+  </si>
+  <si>
+    <t>Great place to stay. Service is really good!  Especially Simon,Yolanda,Kim, Joe and Jermaine! They are friendly, professional and dedicated to making sure you enjoy your stay with them. We have been here since December of last year so it's beginning to feel like home. Would highly recommend this motel!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r203733288-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
     <t>203733288</t>
   </si>
   <si>
-    <t>05/02/2014</t>
-  </si>
-  <si>
     <t>My Review</t>
   </si>
   <si>
     <t>They are a great group of people who care about everyone Joe, Simon, Ms Yolanda they are the greatest i would visit again and i refer my friends to stop by and they that crew out they are the bestTHANKSDARRELL McGinty</t>
   </si>
   <si>
-    <t>April 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r203433585-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -1262,6 +1895,36 @@
     <t>Value place is great! It felt like home living there for the few months I stayed here. At first it wasn't as good as it is now.   My favorite person is The new Manager Jermaine he is awesome! Since he's been there it's been great .  Everything been going good. He's my favorite ! Other then that The employees are friendly &amp; nice also ! The only employee I can say is not so good as the others is Dee , she's very rude! . I suggest this hotel to stay though, best one I've been to, very clean &amp; love the employees ! Manager Jermaine needs to STAY AROUND , he's great,  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r202611766-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>202611766</t>
+  </si>
+  <si>
+    <t>04/24/2014</t>
+  </si>
+  <si>
+    <t>Wonderful, Surprisingly Clean!</t>
+  </si>
+  <si>
+    <t>Just checked-in; pleasantly surprised at how clean and fresh the room feels. I thanked the front office. Was told Yolanda cleaned the room. I'll have to thank her after my shower &amp; nap. Feeling so relaxed! Thanks to all the staff for making me feel at home.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r201555026-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>201555026</t>
+  </si>
+  <si>
+    <t>04/17/2014</t>
+  </si>
+  <si>
+    <t>My best stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was the best hotel I've stayed at and the staff were very friendly. The environment was very safe for my girls and I. Also Joe AND DEE WAS AMAZING and went the extra mile to make our stay outstanding. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r197949540-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -1307,6 +1970,39 @@
     <t>My husband and I are seeking a home and didn't want to stay in an apartment so we came to Value Place. Simon Rodriguez and Yolanda Buitureida have been extremely pleasant and more than helpful making our stay more comfortable.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r197079866-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>197079866</t>
+  </si>
+  <si>
+    <t>03/11/2014</t>
+  </si>
+  <si>
+    <t>The greatest hotel ever.</t>
+  </si>
+  <si>
+    <t>We have had a wonderful stay at the Value Place the rooms are very clean and perfect for an extended stay.The kitchenette area along with the separate bathroom really make the rooms feel homey.The staff is very courteous and helpful. Joe, at the front desk, is awesome and always extremely helpful. I would definitely recommend this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r196201242-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>196201242</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay as a your home away from home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome place, Nice workers, Good microwave, Good kitchenet, Pretty good bathroom, Good bedframes! Awesome washer and dryers, Laundry is very affordable. Plenty of space in the rooms, Full size fridge, Affordable Vending Machines. House keeping everyother week. Its pretty much like living in your own house. The Maintenence man Simon is great. If you need something to be fixed he does it right away. </t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r195788141-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -1322,9 +2018,6 @@
     <t>The hotel had all the basics for an extended stay. The kitchenette was perfect. The staff Joe and Sarah Odom, the manager were friendly. I would go back again. Its right next to the san Jacinto Mall and there are restaurants in the same area.MoreShow less</t>
   </si>
   <si>
-    <t>February 2014</t>
-  </si>
-  <si>
     <t>Sarah O, Manager at WoodSpring Suites Houston Baytown, responded to this reviewResponded March 6, 2014</t>
   </si>
   <si>
@@ -1386,6 +2079,48 @@
   </si>
   <si>
     <t>this place is bare bones, but they know that. It's cheap, but it's clean. I feel safe here. The staff treat you like family. I could pay $100 a night and get a lot more things I don't really need, but this hotel offers me a room that feels like my own house, and a staff that always has a smile. Especially the housekeeper and assistant manager. They know me by name and always make sure I have what I need. I will be back again! I like walking in and hearing the staff call me by name. I have been here several months and have had no problems.the internet could use an upgrade.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r155438274-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>155438274</t>
+  </si>
+  <si>
+    <t>03/23/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>I want to give an honest impression of our stay at Value Place in Baytown.  A little history - My elderly mother needed to have medical attention in the Houston area,  Because we were from this area originally, we decided on making Value Place our home until we could actually go home.  At this point we've been onsite for almost 3 months with a short while to go.  This is a lock in facility, which means you have to have card access to reach the area where the hotel room doors are inside the facility.  No hotel room doors outside facing the parking lots.  This is a big plus.  It's not a Hyatt Regency but for the $$ you pay, you get your money's  worth.  The rooms have a kitchenette with a fridge, 2 burner and microwave, so you can actually buy and cook food.  They will sell you dinnerware, coffee pot, etc... and there is a pay laundry onsite.  The folks that work here are great.  They've gone out of their way to assist us with all of our needs.  And they watch out for us too.  There are daily or weekly rates and there are a lot of hard working people who stay here that have traveled in from out of town to work in the area.  I would gladly give them business again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>I want to give an honest impression of our stay at Value Place in Baytown.  A little history - My elderly mother needed to have medical attention in the Houston area,  Because we were from this area originally, we decided on making Value Place our home until we could actually go home.  At this point we've been onsite for almost 3 months with a short while to go.  This is a lock in facility, which means you have to have card access to reach the area where the hotel room doors are inside the facility.  No hotel room doors outside facing the parking lots.  This is a big plus.  It's not a Hyatt Regency but for the $$ you pay, you get your money's  worth.  The rooms have a kitchenette with a fridge, 2 burner and microwave, so you can actually buy and cook food.  They will sell you dinnerware, coffee pot, etc... and there is a pay laundry onsite.  The folks that work here are great.  They've gone out of their way to assist us with all of our needs.  And they watch out for us too.  There are daily or weekly rates and there are a lot of hard working people who stay here that have traveled in from out of town to work in the area.  I would gladly give them business again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r135359881-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>135359881</t>
+  </si>
+  <si>
+    <t>07/25/2012</t>
+  </si>
+  <si>
+    <t>Not good for what you pay</t>
+  </si>
+  <si>
+    <t>During my stay the lock on the door stoped working i called the office and it took them 5hrs to fix it and all it needed was new batteries.  I had problems when I would plug something in the breaker would trip and when I complained about it I was told that I had to much plud in.  The beds are like sleeping on rocks.  The staff is friendly if you dont have a problem with anything but as soon as you do its like you are bothering them.  You have to pay for the internet every week and its not wifi you have to pay if you want clean towels other than when you get your room cleaned every two weeks.  If you do not look at your bill you will be over charged for things like extra towels even if you dont get them during the week.  If anything happens to your key you have to pay to get a new one.  You cant open your window or do while you are in your room so if you cook all the time the smell just stayes in your room.  For what you get it is over prices and not some where i would recommend for anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>During my stay the lock on the door stoped working i called the office and it took them 5hrs to fix it and all it needed was new batteries.  I had problems when I would plug something in the breaker would trip and when I complained about it I was told that I had to much plud in.  The beds are like sleeping on rocks.  The staff is friendly if you dont have a problem with anything but as soon as you do its like you are bothering them.  You have to pay for the internet every week and its not wifi you have to pay if you want clean towels other than when you get your room cleaned every two weeks.  If you do not look at your bill you will be over charged for things like extra towels even if you dont get them during the week.  If anything happens to your key you have to pay to get a new one.  You cant open your window or do while you are in your room so if you cook all the time the smell just stayes in your room.  For what you get it is over prices and not some where i would recommend for anyone.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1383472-r91339241-WoodSpring_Suites_Houston_Baytown-Baytown_Texas.html</t>
@@ -1976,12 +2711,18 @@
       <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -2020,13 +2761,13 @@
         <v>57</v>
       </c>
       <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
@@ -2035,25 +2776,29 @@
         <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -2069,55 +2814,49 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
         <v>67</v>
       </c>
-      <c r="L4" t="s">
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
         <v>68</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="X4" t="s">
         <v>69</v>
-      </c>
-      <c r="O4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
-      <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="s">
-        <v>62</v>
-      </c>
-      <c r="X4" t="s">
-        <v>63</v>
       </c>
       <c r="Y4" t="s">
         <v>70</v>
@@ -2160,34 +2899,28 @@
         <v>5</v>
       </c>
       <c r="N5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y5" t="s">
         <v>76</v>
-      </c>
-      <c r="O5" t="s">
-        <v>77</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
-      <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s">
-        <v>78</v>
-      </c>
-      <c r="X5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -2203,7 +2936,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -2212,25 +2945,25 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
         <v>73</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -2248,13 +2981,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="X6" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -2270,34 +3003,34 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
         <v>87</v>
       </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>88</v>
       </c>
-      <c r="J7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>92</v>
-      </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2309,13 +3042,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="X7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -2331,7 +3064,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -2340,47 +3073,43 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="X8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -2396,41 +3125,43 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
         <v>106</v>
-      </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J9" t="s">
-        <v>108</v>
-      </c>
-      <c r="K9" t="s">
-        <v>109</v>
-      </c>
-      <c r="L9" t="s">
-        <v>110</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O9" t="s">
-        <v>112</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
         <v>5</v>
       </c>
       <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
         <v>5</v>
@@ -2439,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="X9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
@@ -2461,7 +3192,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -2470,32 +3201,34 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
         <v>5</v>
       </c>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
         <v>5</v>
@@ -2504,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="X10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="Y10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
@@ -2526,34 +3259,34 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>121</v>
       </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
-        <v>122</v>
-      </c>
-      <c r="J11" t="s">
-        <v>123</v>
-      </c>
-      <c r="K11" t="s">
-        <v>124</v>
-      </c>
-      <c r="L11" t="s">
-        <v>125</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>126</v>
-      </c>
       <c r="O11" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2565,13 +3298,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="X11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="Y11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
@@ -2587,34 +3320,34 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
         <v>130</v>
       </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
-        <v>131</v>
-      </c>
-      <c r="J12" t="s">
-        <v>132</v>
-      </c>
-      <c r="K12" t="s">
-        <v>133</v>
-      </c>
-      <c r="L12" t="s">
-        <v>134</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>126</v>
-      </c>
       <c r="O12" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2625,14 +3358,10 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>135</v>
-      </c>
-      <c r="X12" t="s">
-        <v>136</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
@@ -2648,7 +3377,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -2657,49 +3386,43 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="X13" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Y13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
@@ -2715,52 +3438,56 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" t="s">
         <v>145</v>
       </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
-        <v>146</v>
-      </c>
-      <c r="J14" t="s">
-        <v>147</v>
-      </c>
-      <c r="K14" t="s">
-        <v>148</v>
-      </c>
-      <c r="L14" t="s">
-        <v>149</v>
-      </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="X14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
@@ -2776,52 +3503,56 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>150</v>
+      </c>
+      <c r="J15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" t="s">
+        <v>152</v>
+      </c>
+      <c r="L15" t="s">
+        <v>153</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>154</v>
       </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="O15" t="s">
         <v>155</v>
       </c>
-      <c r="J15" t="s">
-        <v>156</v>
-      </c>
-      <c r="K15" t="s">
-        <v>157</v>
-      </c>
-      <c r="L15" t="s">
-        <v>158</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>150</v>
-      </c>
-      <c r="O15" t="s">
-        <v>93</v>
-      </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="X15" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Y15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
@@ -2837,52 +3568,56 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
         <v>160</v>
       </c>
-      <c r="G16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" t="s">
         <v>161</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>162</v>
       </c>
-      <c r="K16" t="s">
-        <v>163</v>
-      </c>
-      <c r="L16" t="s">
-        <v>164</v>
-      </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="O16" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="X16" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
@@ -2898,7 +3633,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2907,25 +3642,25 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="O17" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2937,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="X17" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="Y17" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
@@ -2959,7 +3694,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2968,25 +3703,25 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="O18" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2997,10 +3732,14 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>177</v>
+      </c>
+      <c r="X18" t="s">
+        <v>178</v>
+      </c>
       <c r="Y18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
@@ -3016,34 +3755,34 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J19" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19" t="s">
         <v>184</v>
       </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>185</v>
       </c>
-      <c r="J19" t="s">
-        <v>186</v>
-      </c>
-      <c r="K19" t="s">
-        <v>187</v>
-      </c>
-      <c r="L19" t="s">
-        <v>188</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>189</v>
-      </c>
       <c r="O19" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3055,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="X19" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Y19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20">
@@ -3077,34 +3816,34 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" t="s">
+        <v>192</v>
+      </c>
+      <c r="L20" t="s">
         <v>193</v>
       </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" t="s">
-        <v>194</v>
-      </c>
-      <c r="J20" t="s">
-        <v>195</v>
-      </c>
-      <c r="K20" t="s">
-        <v>196</v>
-      </c>
-      <c r="L20" t="s">
-        <v>197</v>
-      </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="O20" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3116,13 +3855,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="X20" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="Y20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21">
@@ -3138,52 +3877,58 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" t="s">
+        <v>200</v>
+      </c>
+      <c r="L21" t="s">
+        <v>201</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
         <v>202</v>
       </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s">
-        <v>203</v>
-      </c>
-      <c r="J21" t="s">
-        <v>204</v>
-      </c>
-      <c r="K21" t="s">
-        <v>205</v>
-      </c>
-      <c r="L21" t="s">
-        <v>206</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>198</v>
-      </c>
       <c r="O21" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="X21" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="Y21" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22">
@@ -3199,7 +3944,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -3208,25 +3953,25 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J22" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="O22" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3238,13 +3983,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="X22" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y22" t="s">
         <v>208</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="23">
@@ -3260,7 +4005,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -3269,25 +4014,25 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="J23" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K23" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="O23" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3299,13 +4044,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="X23" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="Y23" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24">
@@ -3321,7 +4066,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -3330,25 +4075,25 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="J24" t="s">
         <v>217</v>
       </c>
       <c r="K24" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="O24" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3360,13 +4105,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="X24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y24" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
@@ -3382,58 +4127,52 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>225</v>
+      </c>
+      <c r="J25" t="s">
+        <v>226</v>
+      </c>
+      <c r="K25" t="s">
+        <v>227</v>
+      </c>
+      <c r="L25" t="s">
         <v>228</v>
       </c>
-      <c r="G25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" t="s">
-        <v>229</v>
-      </c>
-      <c r="J25" t="s">
-        <v>230</v>
-      </c>
-      <c r="K25" t="s">
-        <v>231</v>
-      </c>
-      <c r="L25" t="s">
-        <v>232</v>
-      </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="O25" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="X25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y25" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26">
@@ -3449,34 +4188,34 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>231</v>
+      </c>
+      <c r="J26" t="s">
+        <v>232</v>
+      </c>
+      <c r="K26" t="s">
+        <v>233</v>
+      </c>
+      <c r="L26" t="s">
         <v>234</v>
       </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
         <v>235</v>
       </c>
-      <c r="J26" t="s">
-        <v>236</v>
-      </c>
-      <c r="K26" t="s">
-        <v>237</v>
-      </c>
-      <c r="L26" t="s">
-        <v>238</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>189</v>
-      </c>
       <c r="O26" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3488,13 +4227,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="X26" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="Y26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27">
@@ -3510,19 +4249,19 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
+        <v>239</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
         <v>240</v>
       </c>
-      <c r="G27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>241</v>
-      </c>
-      <c r="J27" t="s">
-        <v>236</v>
       </c>
       <c r="K27" t="s">
         <v>242</v>
@@ -3534,10 +4273,10 @@
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c r="O27" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3549,13 +4288,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="X27" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="Y27" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28">
@@ -3571,7 +4310,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3580,25 +4319,25 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J28" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K28" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>189</v>
+        <v>251</v>
       </c>
       <c r="O28" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3610,13 +4349,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="X28" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="Y28" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29">
@@ -3632,34 +4371,34 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
+        <v>255</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>256</v>
+      </c>
+      <c r="J29" t="s">
+        <v>257</v>
+      </c>
+      <c r="K29" t="s">
+        <v>258</v>
+      </c>
+      <c r="L29" t="s">
+        <v>259</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
         <v>251</v>
       </c>
-      <c r="G29" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I29" t="s">
-        <v>252</v>
-      </c>
-      <c r="J29" t="s">
-        <v>253</v>
-      </c>
-      <c r="K29" t="s">
-        <v>205</v>
-      </c>
-      <c r="L29" t="s">
-        <v>254</v>
-      </c>
-      <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s">
-        <v>189</v>
-      </c>
       <c r="O29" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3671,13 +4410,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="X29" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Y29" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30">
@@ -3693,7 +4432,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3702,49 +4441,39 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="J30" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K30" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L30" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="O30" t="s">
-        <v>93</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>4</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>220</v>
-      </c>
-      <c r="X30" t="s">
-        <v>221</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
@@ -3760,7 +4489,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3769,47 +4498,43 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J31" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K31" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L31" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="O31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="X31" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="Y31" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32">
@@ -3825,7 +4550,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3834,47 +4559,43 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="J32" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K32" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L32" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="O32" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="X32" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="Y32" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33">
@@ -3890,7 +4611,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3899,49 +4620,43 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="J33" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K33" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L33" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="O33" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>220</v>
+        <v>288</v>
       </c>
       <c r="X33" t="s">
-        <v>221</v>
+        <v>289</v>
       </c>
       <c r="Y33" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34">
@@ -3957,7 +4672,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -3966,49 +4681,43 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="J34" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="K34" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s">
+        <v>295</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
         <v>287</v>
       </c>
-      <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s">
-        <v>263</v>
-      </c>
       <c r="O34" t="s">
-        <v>93</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
+      <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>220</v>
+        <v>296</v>
       </c>
       <c r="X34" t="s">
-        <v>221</v>
+        <v>297</v>
       </c>
       <c r="Y34" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35">
@@ -4024,7 +4733,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -4033,25 +4742,25 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J35" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="K35" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="L35" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="O35" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4063,13 +4772,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="X35" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="Y35" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36">
@@ -4085,7 +4794,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -4094,25 +4803,25 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="J36" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K36" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="L36" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="O36" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4124,13 +4833,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="X36" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="Y36" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37">
@@ -4146,7 +4855,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -4155,49 +4864,43 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="J37" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K37" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L37" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="O37" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="P37" t="s"/>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="X37" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="Y37" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38">
@@ -4213,7 +4916,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -4222,46 +4925,40 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J38" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K38" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L38" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="O38" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="P38" t="s"/>
-      <c r="Q38" t="n">
-        <v>2</v>
-      </c>
-      <c r="R38" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>1</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="X38" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="Y38" t="s">
         <v>321</v>
@@ -4292,22 +4989,22 @@
         <v>323</v>
       </c>
       <c r="J39" t="s">
+        <v>318</v>
+      </c>
+      <c r="K39" t="s">
         <v>324</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>325</v>
       </c>
-      <c r="L39" t="s">
-        <v>326</v>
-      </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="O39" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4319,13 +5016,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
+        <v>326</v>
+      </c>
+      <c r="X39" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y39" t="s">
         <v>328</v>
-      </c>
-      <c r="X39" t="s">
-        <v>329</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="40">
@@ -4341,34 +5038,34 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
+        <v>329</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>330</v>
+      </c>
+      <c r="J40" t="s">
+        <v>318</v>
+      </c>
+      <c r="K40" t="s">
         <v>331</v>
       </c>
-      <c r="G40" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40" t="s">
-        <v>46</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="L40" t="s">
         <v>332</v>
       </c>
-      <c r="J40" t="s">
-        <v>333</v>
-      </c>
-      <c r="K40" t="s">
-        <v>334</v>
-      </c>
-      <c r="L40" t="s">
-        <v>335</v>
-      </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="O40" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4380,13 +5077,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="X40" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Y40" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41">
@@ -4402,40 +5099,40 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
+        <v>334</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>335</v>
+      </c>
+      <c r="J41" t="s">
+        <v>336</v>
+      </c>
+      <c r="K41" t="s">
+        <v>337</v>
+      </c>
+      <c r="L41" t="s">
         <v>338</v>
       </c>
-      <c r="G41" t="s">
-        <v>45</v>
-      </c>
-      <c r="H41" t="s">
-        <v>46</v>
-      </c>
-      <c r="I41" t="s">
-        <v>339</v>
-      </c>
-      <c r="J41" t="s">
-        <v>340</v>
-      </c>
-      <c r="K41" t="s">
-        <v>341</v>
-      </c>
-      <c r="L41" t="s">
-        <v>342</v>
-      </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>343</v>
+        <v>272</v>
       </c>
       <c r="O41" t="s">
-        <v>93</v>
-      </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
-      <c r="R41" t="s"/>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
       <c r="S41" t="n">
         <v>5</v>
       </c>
@@ -4447,13 +5144,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="X41" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="Y41" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42">
@@ -4469,7 +5166,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -4478,25 +5175,25 @@
         <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="J42" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="K42" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="L42" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>343</v>
+        <v>272</v>
       </c>
       <c r="O42" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4508,13 +5205,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
+        <v>326</v>
+      </c>
+      <c r="X42" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y42" t="s">
         <v>344</v>
-      </c>
-      <c r="X42" t="s">
-        <v>345</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="43">
@@ -4530,7 +5227,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4539,25 +5236,25 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="J43" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="K43" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="L43" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>343</v>
+        <v>272</v>
       </c>
       <c r="O43" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4569,13 +5266,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="X43" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="Y43" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44">
@@ -4591,7 +5288,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="G44" t="s">
         <v>45</v>
@@ -4600,49 +5297,43 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="J44" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="K44" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="L44" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
-      <c r="N44" t="s"/>
-      <c r="O44" t="s"/>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+      <c r="N44" t="s">
+        <v>272</v>
+      </c>
+      <c r="O44" t="s">
+        <v>60</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>5</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="X44" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="Y44" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45">
@@ -4658,7 +5349,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -4667,45 +5358,43 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J45" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="K45" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="L45" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
-      <c r="N45" t="s"/>
-      <c r="O45" t="s"/>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+      <c r="N45" t="s">
+        <v>272</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>5</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>326</v>
+      </c>
+      <c r="X45" t="s">
+        <v>327</v>
+      </c>
       <c r="Y45" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46">
@@ -4721,7 +5410,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -4730,22 +5419,22 @@
         <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="J46" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="K46" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>377</v>
+        <v>272</v>
       </c>
       <c r="O46" t="s">
         <v>52</v>
@@ -4759,10 +5448,14 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>326</v>
+      </c>
+      <c r="X46" t="s">
+        <v>327</v>
+      </c>
       <c r="Y46" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47">
@@ -4778,7 +5471,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -4787,49 +5480,47 @@
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J47" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="K47" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="L47" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="O47" t="s">
-        <v>93</v>
-      </c>
-      <c r="P47" t="n">
+        <v>52</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
         <v>4</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>5</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>326</v>
+      </c>
+      <c r="X47" t="s">
+        <v>327</v>
+      </c>
       <c r="Y47" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48">
@@ -4845,7 +5536,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -4854,49 +5545,39 @@
         <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="J48" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="K48" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="L48" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
-      <c r="N48" t="s">
-        <v>383</v>
-      </c>
-      <c r="O48" t="s">
-        <v>93</v>
-      </c>
-      <c r="P48" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>5</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>326</v>
+      </c>
+      <c r="X48" t="s">
+        <v>327</v>
+      </c>
       <c r="Y48" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49">
@@ -4912,7 +5593,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G49" t="s">
         <v>45</v>
@@ -4921,25 +5602,25 @@
         <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="J49" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="K49" t="s">
-        <v>393</v>
+        <v>302</v>
       </c>
       <c r="L49" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>383</v>
+        <v>272</v>
       </c>
       <c r="O49" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -4950,10 +5631,14 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>383</v>
+      </c>
+      <c r="X49" t="s">
+        <v>384</v>
+      </c>
       <c r="Y49" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="50">
@@ -4969,7 +5654,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="G50" t="s">
         <v>45</v>
@@ -4978,39 +5663,49 @@
         <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="J50" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="K50" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="L50" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="O50" t="s">
-        <v>93</v>
-      </c>
-      <c r="P50" t="s"/>
-      <c r="Q50" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
       <c r="R50" t="s"/>
       <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>326</v>
+      </c>
+      <c r="X50" t="s">
+        <v>327</v>
+      </c>
       <c r="Y50" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="51">
@@ -5026,7 +5721,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="G51" t="s">
         <v>45</v>
@@ -5035,31 +5730,29 @@
         <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="J51" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="K51" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="L51" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
-      </c>
-      <c r="N51" t="s"/>
-      <c r="O51" t="s"/>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>5</v>
-      </c>
-      <c r="R51" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>391</v>
+      </c>
+      <c r="O51" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
       <c r="S51" t="n">
         <v>5</v>
       </c>
@@ -5070,10 +5763,14 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>326</v>
+      </c>
+      <c r="X51" t="s">
+        <v>327</v>
+      </c>
       <c r="Y51" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52">
@@ -5089,7 +5786,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G52" t="s">
         <v>45</v>
@@ -5098,45 +5795,43 @@
         <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="J52" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="K52" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="L52" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
-      <c r="N52" t="s"/>
-      <c r="O52" t="s"/>
-      <c r="P52" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>5</v>
-      </c>
-      <c r="R52" t="n">
-        <v>5</v>
-      </c>
-      <c r="S52" t="n">
-        <v>5</v>
-      </c>
+      <c r="N52" t="s">
+        <v>272</v>
+      </c>
+      <c r="O52" t="s">
+        <v>155</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="n">
-        <v>4</v>
-      </c>
+      <c r="U52" t="s"/>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>326</v>
+      </c>
+      <c r="X52" t="s">
+        <v>327</v>
+      </c>
       <c r="Y52" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="53">
@@ -5152,7 +5847,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G53" t="s">
         <v>45</v>
@@ -5161,45 +5856,43 @@
         <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="J53" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K53" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="L53" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="M53" t="n">
-        <v>3</v>
-      </c>
-      <c r="N53" t="s"/>
-      <c r="O53" t="s"/>
-      <c r="P53" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>5</v>
-      </c>
-      <c r="R53" t="n">
-        <v>5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>272</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="n">
-        <v>3</v>
-      </c>
+      <c r="U53" t="s"/>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>326</v>
+      </c>
+      <c r="X53" t="s">
+        <v>327</v>
+      </c>
       <c r="Y53" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54">
@@ -5215,7 +5908,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="G54" t="s">
         <v>45</v>
@@ -5224,38 +5917,32 @@
         <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="J54" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="K54" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="L54" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="O54" t="s">
-        <v>93</v>
-      </c>
-      <c r="P54" t="n">
-        <v>5</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="P54" t="s"/>
       <c r="Q54" t="n">
         <v>5</v>
       </c>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
         <v>5</v>
@@ -5263,10 +5950,14 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>326</v>
+      </c>
+      <c r="X54" t="s">
+        <v>327</v>
+      </c>
       <c r="Y54" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55">
@@ -5282,7 +5973,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
@@ -5291,28 +5982,28 @@
         <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="J55" t="s">
+        <v>418</v>
+      </c>
+      <c r="K55" t="s">
         <v>419</v>
       </c>
-      <c r="K55" t="s">
-        <v>425</v>
-      </c>
       <c r="L55" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
-      </c>
-      <c r="N55" t="s"/>
-      <c r="O55" t="s"/>
-      <c r="P55" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>391</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
       <c r="R55" t="n">
         <v>5</v>
       </c>
@@ -5326,10 +6017,14 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>326</v>
+      </c>
+      <c r="X55" t="s">
+        <v>327</v>
+      </c>
       <c r="Y55" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="56">
@@ -5345,7 +6040,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="G56" t="s">
         <v>45</v>
@@ -5354,38 +6049,34 @@
         <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="J56" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="K56" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L56" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>432</v>
+        <v>391</v>
       </c>
       <c r="O56" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
       </c>
-      <c r="Q56" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q56" t="s"/>
       <c r="R56" t="n">
-        <v>4</v>
-      </c>
-      <c r="S56" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
         <v>5</v>
@@ -5394,13 +6085,13 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>433</v>
+        <v>326</v>
       </c>
       <c r="X56" t="s">
-        <v>434</v>
+        <v>327</v>
       </c>
       <c r="Y56" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="57">
@@ -5416,7 +6107,7 @@
         <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G57" t="s">
         <v>45</v>
@@ -5425,53 +6116,43 @@
         <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="J57" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="K57" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="L57" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>441</v>
+        <v>391</v>
       </c>
       <c r="O57" t="s">
-        <v>93</v>
-      </c>
-      <c r="P57" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>5</v>
-      </c>
-      <c r="R57" t="n">
-        <v>4</v>
-      </c>
-      <c r="S57" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>5</v>
-      </c>
+      <c r="U57" t="s"/>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>442</v>
+        <v>326</v>
       </c>
       <c r="X57" t="s">
-        <v>443</v>
+        <v>327</v>
       </c>
       <c r="Y57" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
     </row>
     <row r="58">
@@ -5487,7 +6168,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="G58" t="s">
         <v>45</v>
@@ -5496,38 +6177,32 @@
         <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="J58" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="K58" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="L58" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="M58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>450</v>
+        <v>372</v>
       </c>
       <c r="O58" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
       </c>
-      <c r="Q58" t="n">
-        <v>4</v>
-      </c>
-      <c r="R58" t="n">
-        <v>3</v>
-      </c>
-      <c r="S58" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
         <v>5</v>
@@ -5536,13 +6211,13 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="X58" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="Y58" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59">
@@ -5558,7 +6233,7 @@
         <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="G59" t="s">
         <v>45</v>
@@ -5567,53 +6242,43 @@
         <v>46</v>
       </c>
       <c r="I59" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="J59" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="K59" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="L59" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="M59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="O59" t="s">
-        <v>93</v>
-      </c>
-      <c r="P59" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>3</v>
-      </c>
-      <c r="R59" t="n">
-        <v>4</v>
-      </c>
-      <c r="S59" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
-      <c r="U59" t="n">
-        <v>4</v>
-      </c>
+      <c r="U59" t="s"/>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="X59" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="Y59" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60">
@@ -5629,58 +6294,2626 @@
         <v>43</v>
       </c>
       <c r="F60" t="s">
+        <v>449</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>450</v>
+      </c>
+      <c r="J60" t="s">
+        <v>451</v>
+      </c>
+      <c r="K60" t="s">
+        <v>452</v>
+      </c>
+      <c r="L60" t="s">
+        <v>453</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>454</v>
+      </c>
+      <c r="O60" t="s">
+        <v>60</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>455</v>
+      </c>
+      <c r="X60" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>458</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>459</v>
+      </c>
+      <c r="J61" t="s">
+        <v>460</v>
+      </c>
+      <c r="K61" t="s">
+        <v>461</v>
+      </c>
+      <c r="L61" t="s">
+        <v>462</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
         <v>463</v>
       </c>
-      <c r="G60" t="s">
-        <v>45</v>
-      </c>
-      <c r="H60" t="s">
-        <v>46</v>
-      </c>
-      <c r="I60" t="s">
+      <c r="O61" t="s">
+        <v>155</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>455</v>
+      </c>
+      <c r="X61" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y61" t="s">
         <v>464</v>
       </c>
-      <c r="J60" t="s">
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
         <v>465</v>
       </c>
-      <c r="K60" t="s">
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
         <v>466</v>
       </c>
-      <c r="L60" t="s">
+      <c r="J62" t="s">
+        <v>460</v>
+      </c>
+      <c r="K62" t="s">
         <v>467</v>
       </c>
-      <c r="M60" t="n">
+      <c r="L62" t="s">
+        <v>468</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>454</v>
+      </c>
+      <c r="O62" t="s">
+        <v>106</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>455</v>
+      </c>
+      <c r="X62" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>470</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>471</v>
+      </c>
+      <c r="J63" t="s">
+        <v>472</v>
+      </c>
+      <c r="K63" t="s">
+        <v>473</v>
+      </c>
+      <c r="L63" t="s">
+        <v>474</v>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
-      <c r="N60" t="s">
-        <v>468</v>
-      </c>
-      <c r="O60" t="s">
+      <c r="N63" t="s">
+        <v>414</v>
+      </c>
+      <c r="O63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>475</v>
+      </c>
+      <c r="X63" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>478</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>479</v>
+      </c>
+      <c r="J64" t="s">
+        <v>480</v>
+      </c>
+      <c r="K64" t="s">
+        <v>481</v>
+      </c>
+      <c r="L64" t="s">
+        <v>482</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>414</v>
+      </c>
+      <c r="O64" t="s">
+        <v>52</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>483</v>
+      </c>
+      <c r="X64" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>486</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>487</v>
+      </c>
+      <c r="J65" t="s">
+        <v>488</v>
+      </c>
+      <c r="K65" t="s">
+        <v>489</v>
+      </c>
+      <c r="L65" t="s">
+        <v>490</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>491</v>
+      </c>
+      <c r="O65" t="s">
+        <v>52</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>492</v>
+      </c>
+      <c r="X65" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>495</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>496</v>
+      </c>
+      <c r="J66" t="s">
+        <v>497</v>
+      </c>
+      <c r="K66" t="s">
+        <v>498</v>
+      </c>
+      <c r="L66" t="s">
+        <v>499</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>500</v>
+      </c>
+      <c r="O66" t="s">
+        <v>52</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>492</v>
+      </c>
+      <c r="X66" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>502</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>503</v>
+      </c>
+      <c r="J67" t="s">
+        <v>504</v>
+      </c>
+      <c r="K67" t="s">
+        <v>505</v>
+      </c>
+      <c r="L67" t="s">
+        <v>506</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>500</v>
+      </c>
+      <c r="O67" t="s">
+        <v>60</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>507</v>
+      </c>
+      <c r="X67" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>510</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>511</v>
+      </c>
+      <c r="J68" t="s">
+        <v>512</v>
+      </c>
+      <c r="K68" t="s">
+        <v>513</v>
+      </c>
+      <c r="L68" t="s">
+        <v>514</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>515</v>
+      </c>
+      <c r="O68" t="s">
+        <v>52</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>516</v>
+      </c>
+      <c r="X68" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>519</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>520</v>
+      </c>
+      <c r="J69" t="s">
+        <v>512</v>
+      </c>
+      <c r="K69" t="s">
+        <v>521</v>
+      </c>
+      <c r="L69" t="s">
+        <v>522</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>523</v>
+      </c>
+      <c r="O69" t="s">
+        <v>52</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>516</v>
+      </c>
+      <c r="X69" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>525</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>526</v>
+      </c>
+      <c r="J70" t="s">
+        <v>527</v>
+      </c>
+      <c r="K70" t="s">
+        <v>528</v>
+      </c>
+      <c r="L70" t="s">
+        <v>529</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>523</v>
+      </c>
+      <c r="O70" t="s">
+        <v>52</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>516</v>
+      </c>
+      <c r="X70" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>531</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>532</v>
+      </c>
+      <c r="J71" t="s">
+        <v>533</v>
+      </c>
+      <c r="K71" t="s">
+        <v>534</v>
+      </c>
+      <c r="L71" t="s">
+        <v>535</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>523</v>
+      </c>
+      <c r="O71" t="s">
+        <v>52</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>536</v>
+      </c>
+      <c r="X71" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>539</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>540</v>
+      </c>
+      <c r="J72" t="s">
+        <v>541</v>
+      </c>
+      <c r="K72" t="s">
+        <v>542</v>
+      </c>
+      <c r="L72" t="s">
+        <v>543</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>544</v>
+      </c>
+      <c r="O72" t="s">
+        <v>60</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>536</v>
+      </c>
+      <c r="X72" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>546</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>547</v>
+      </c>
+      <c r="J73" t="s">
+        <v>548</v>
+      </c>
+      <c r="K73" t="s">
+        <v>549</v>
+      </c>
+      <c r="L73" t="s">
+        <v>550</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>544</v>
+      </c>
+      <c r="O73" t="s">
+        <v>52</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>536</v>
+      </c>
+      <c r="X73" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>552</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>553</v>
+      </c>
+      <c r="J74" t="s">
+        <v>554</v>
+      </c>
+      <c r="K74" t="s">
+        <v>555</v>
+      </c>
+      <c r="L74" t="s">
+        <v>556</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>536</v>
+      </c>
+      <c r="X74" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>558</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>559</v>
+      </c>
+      <c r="J75" t="s">
+        <v>560</v>
+      </c>
+      <c r="K75" t="s">
+        <v>561</v>
+      </c>
+      <c r="L75" t="s">
+        <v>562</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>563</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>564</v>
+      </c>
+      <c r="J76" t="s">
+        <v>565</v>
+      </c>
+      <c r="K76" t="s">
+        <v>566</v>
+      </c>
+      <c r="L76" t="s">
+        <v>567</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>568</v>
+      </c>
+      <c r="O76" t="s">
+        <v>67</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>569</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>570</v>
+      </c>
+      <c r="J77" t="s">
+        <v>571</v>
+      </c>
+      <c r="K77" t="s">
+        <v>572</v>
+      </c>
+      <c r="L77" t="s">
+        <v>573</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>574</v>
+      </c>
+      <c r="O77" t="s">
+        <v>60</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>575</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>576</v>
+      </c>
+      <c r="J78" t="s">
+        <v>577</v>
+      </c>
+      <c r="K78" t="s">
+        <v>578</v>
+      </c>
+      <c r="L78" t="s">
+        <v>579</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>580</v>
+      </c>
+      <c r="O78" t="s">
+        <v>52</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>581</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>582</v>
+      </c>
+      <c r="J79" t="s">
+        <v>583</v>
+      </c>
+      <c r="K79" t="s">
+        <v>584</v>
+      </c>
+      <c r="L79" t="s">
+        <v>585</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>574</v>
+      </c>
+      <c r="O79" t="s">
+        <v>52</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>586</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>587</v>
+      </c>
+      <c r="J80" t="s">
+        <v>588</v>
+      </c>
+      <c r="K80" t="s">
+        <v>589</v>
+      </c>
+      <c r="L80" t="s">
+        <v>590</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>574</v>
+      </c>
+      <c r="O80" t="s">
+        <v>52</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>592</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>593</v>
+      </c>
+      <c r="J81" t="s">
+        <v>594</v>
+      </c>
+      <c r="K81" t="s">
+        <v>595</v>
+      </c>
+      <c r="L81" t="s">
+        <v>596</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>574</v>
+      </c>
+      <c r="O81" t="s">
+        <v>60</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>597</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>598</v>
+      </c>
+      <c r="J82" t="s">
+        <v>599</v>
+      </c>
+      <c r="K82" t="s">
+        <v>600</v>
+      </c>
+      <c r="L82" t="s">
+        <v>601</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>602</v>
+      </c>
+      <c r="O82" t="s">
+        <v>52</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>603</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>604</v>
+      </c>
+      <c r="J83" t="s">
+        <v>605</v>
+      </c>
+      <c r="K83" t="s">
+        <v>606</v>
+      </c>
+      <c r="L83" t="s">
+        <v>607</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>602</v>
+      </c>
+      <c r="O83" t="s">
+        <v>52</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>608</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>609</v>
+      </c>
+      <c r="J84" t="s">
+        <v>605</v>
+      </c>
+      <c r="K84" t="s">
+        <v>610</v>
+      </c>
+      <c r="L84" t="s">
+        <v>611</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>602</v>
+      </c>
+      <c r="O84" t="s">
+        <v>52</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>612</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>613</v>
+      </c>
+      <c r="J85" t="s">
+        <v>614</v>
+      </c>
+      <c r="K85" t="s">
+        <v>615</v>
+      </c>
+      <c r="L85" t="s">
+        <v>616</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>617</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>618</v>
+      </c>
+      <c r="J86" t="s">
+        <v>619</v>
+      </c>
+      <c r="K86" t="s">
+        <v>620</v>
+      </c>
+      <c r="L86" t="s">
+        <v>621</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>623</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>624</v>
+      </c>
+      <c r="J87" t="s">
+        <v>625</v>
+      </c>
+      <c r="K87" t="s">
+        <v>626</v>
+      </c>
+      <c r="L87" t="s">
+        <v>627</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>602</v>
+      </c>
+      <c r="O87" t="s">
+        <v>155</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>628</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>629</v>
+      </c>
+      <c r="J88" t="s">
+        <v>630</v>
+      </c>
+      <c r="K88" t="s">
+        <v>631</v>
+      </c>
+      <c r="L88" t="s">
+        <v>632</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>602</v>
+      </c>
+      <c r="O88" t="s">
+        <v>67</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>633</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>634</v>
+      </c>
+      <c r="J89" t="s">
+        <v>635</v>
+      </c>
+      <c r="K89" t="s">
+        <v>636</v>
+      </c>
+      <c r="L89" t="s">
+        <v>637</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>638</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>639</v>
+      </c>
+      <c r="J90" t="s">
+        <v>640</v>
+      </c>
+      <c r="K90" t="s">
+        <v>641</v>
+      </c>
+      <c r="L90" t="s">
+        <v>642</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>643</v>
+      </c>
+      <c r="O90" t="s">
+        <v>52</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>644</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>645</v>
+      </c>
+      <c r="J91" t="s">
+        <v>640</v>
+      </c>
+      <c r="K91" t="s">
+        <v>646</v>
+      </c>
+      <c r="L91" t="s">
+        <v>647</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>648</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>649</v>
+      </c>
+      <c r="J92" t="s">
+        <v>650</v>
+      </c>
+      <c r="K92" t="s">
+        <v>651</v>
+      </c>
+      <c r="L92" t="s">
+        <v>652</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>643</v>
+      </c>
+      <c r="O92" t="s">
+        <v>60</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>653</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>654</v>
+      </c>
+      <c r="J93" t="s">
+        <v>655</v>
+      </c>
+      <c r="K93" t="s">
+        <v>656</v>
+      </c>
+      <c r="L93" t="s">
+        <v>657</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>658</v>
+      </c>
+      <c r="O93" t="s">
+        <v>52</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
         <v>93</v>
       </c>
-      <c r="P60" t="n">
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>659</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>660</v>
+      </c>
+      <c r="J94" t="s">
+        <v>661</v>
+      </c>
+      <c r="K94" t="s">
+        <v>662</v>
+      </c>
+      <c r="L94" t="s">
+        <v>663</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>658</v>
+      </c>
+      <c r="O94" t="s">
+        <v>106</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>664</v>
+      </c>
+      <c r="X94" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>667</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" t="s">
+        <v>668</v>
+      </c>
+      <c r="J95" t="s">
+        <v>669</v>
+      </c>
+      <c r="K95" t="s">
+        <v>670</v>
+      </c>
+      <c r="L95" t="s">
+        <v>671</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>672</v>
+      </c>
+      <c r="O95" t="s">
+        <v>52</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>673</v>
+      </c>
+      <c r="X95" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>676</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>677</v>
+      </c>
+      <c r="J96" t="s">
+        <v>678</v>
+      </c>
+      <c r="K96" t="s">
+        <v>679</v>
+      </c>
+      <c r="L96" t="s">
+        <v>680</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>681</v>
+      </c>
+      <c r="O96" t="s">
+        <v>52</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
         <v>3</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>682</v>
+      </c>
+      <c r="X96" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>685</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" t="s">
+        <v>686</v>
+      </c>
+      <c r="J97" t="s">
+        <v>687</v>
+      </c>
+      <c r="K97" t="s">
+        <v>688</v>
+      </c>
+      <c r="L97" t="s">
+        <v>689</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>690</v>
+      </c>
+      <c r="O97" t="s">
+        <v>60</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>682</v>
+      </c>
+      <c r="X97" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" t="s">
+        <v>692</v>
+      </c>
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" t="s">
+        <v>693</v>
+      </c>
+      <c r="J98" t="s">
+        <v>694</v>
+      </c>
+      <c r="K98" t="s">
+        <v>695</v>
+      </c>
+      <c r="L98" t="s">
+        <v>696</v>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
-      <c r="R60" t="n">
+      <c r="N98" t="s">
+        <v>697</v>
+      </c>
+      <c r="O98" t="s">
+        <v>52</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>2</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s">
+        <v>699</v>
+      </c>
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" t="s">
+        <v>700</v>
+      </c>
+      <c r="J99" t="s">
+        <v>701</v>
+      </c>
+      <c r="K99" t="s">
+        <v>702</v>
+      </c>
+      <c r="L99" t="s">
+        <v>703</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s">
+        <v>704</v>
+      </c>
+      <c r="O99" t="s">
+        <v>52</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>3</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>705</v>
+      </c>
+      <c r="X99" t="s">
+        <v>706</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>59217</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" t="s">
+        <v>708</v>
+      </c>
+      <c r="G100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" t="s">
+        <v>709</v>
+      </c>
+      <c r="J100" t="s">
+        <v>710</v>
+      </c>
+      <c r="K100" t="s">
+        <v>711</v>
+      </c>
+      <c r="L100" t="s">
+        <v>712</v>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
-      <c r="S60" t="n">
+      <c r="N100" t="s">
+        <v>713</v>
+      </c>
+      <c r="O100" t="s">
+        <v>52</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q100" t="n">
         <v>1</v>
       </c>
-      <c r="T60" t="s"/>
-      <c r="U60" t="n">
+      <c r="R100" t="n">
         <v>1</v>
       </c>
-      <c r="V60" t="n">
-        <v>0</v>
-      </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
-      <c r="Y60" t="s">
-        <v>469</v>
+      <c r="S100" t="n">
+        <v>1</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>1</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>714</v>
       </c>
     </row>
   </sheetData>
